--- a/data/134/DEUSTATIS/old/New orders in manufacturing (volume index) - 2001.xlsx
+++ b/data/134/DEUSTATIS/old/New orders in manufacturing (volume index) - 2001.xlsx
@@ -168,7 +168,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:59:35</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:54:10</t>
   </si>
 </sst>
 </file>
@@ -13163,46 +13163,46 @@
         <v>75.6</v>
       </c>
       <c r="AA30" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AB30" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="AC30" t="n" s="10">
         <v>75.4</v>
       </c>
       <c r="AD30" t="n" s="10">
+        <v>75.3</v>
+      </c>
+      <c r="AE30" t="n" s="10">
         <v>75.4</v>
       </c>
-      <c r="AE30" t="n" s="10">
-        <v>75.3</v>
-      </c>
       <c r="AF30" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="AG30" t="n" s="10">
         <v>75.8</v>
       </c>
       <c r="AH30" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="AI30" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="AJ30" t="n" s="10">
         <v>77.4</v>
       </c>
       <c r="AK30" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="AL30" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="AM30" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AN30" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="AO30" t="n" s="10">
         <v>79.9</v>
@@ -13217,7 +13217,7 @@
         <v>80.7</v>
       </c>
       <c r="AS30" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="AT30" t="n" s="10">
         <v>81.0</v>
@@ -13226,16 +13226,16 @@
         <v>81.1</v>
       </c>
       <c r="AV30" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="AW30" t="n" s="10">
         <v>81.4</v>
       </c>
       <c r="AX30" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="AY30" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="AZ30" t="n" s="10">
         <v>82.3</v>
@@ -13247,13 +13247,13 @@
         <v>83.3</v>
       </c>
       <c r="BC30" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="BD30" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="BE30" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="BF30" t="n" s="10">
         <v>86.2</v>
@@ -13265,13 +13265,13 @@
         <v>87.8</v>
       </c>
       <c r="BI30" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BJ30" t="n" s="10">
         <v>89.3</v>
       </c>
       <c r="BK30" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="BL30" t="n" s="10">
         <v>90.6</v>
@@ -13298,7 +13298,7 @@
         <v>95.0</v>
       </c>
       <c r="BT30" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="BU30" t="n" s="10">
         <v>96.4</v>
@@ -13307,19 +13307,19 @@
         <v>97.2</v>
       </c>
       <c r="BW30" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="BX30" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="BY30" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BZ30" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="CA30" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CB30" t="n" s="10">
         <v>102.3</v>
@@ -13334,34 +13334,34 @@
         <v>104.1</v>
       </c>
       <c r="CF30" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="CG30" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="CH30" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="CI30" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="CJ30" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="CK30" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="CL30" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="CM30" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CN30" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="CO30" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="CP30" t="n" s="10">
         <v>91.0</v>
@@ -13370,7 +13370,7 @@
         <v>87.6</v>
       </c>
       <c r="CR30" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="CS30" t="n" s="10">
         <v>81.0</v>
@@ -13403,16 +13403,16 @@
         <v>75.3</v>
       </c>
       <c r="DC30" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="DD30" t="n" s="10">
         <v>78.7</v>
       </c>
       <c r="DE30" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="DF30" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="DG30" t="n" s="10">
         <v>83.8</v>
@@ -13427,7 +13427,7 @@
         <v>87.7</v>
       </c>
       <c r="DK30" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="DL30" t="n" s="10">
         <v>90.0</v>
@@ -13442,22 +13442,22 @@
         <v>93.6</v>
       </c>
       <c r="DP30" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="DQ30" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DR30" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DS30" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="DT30" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DU30" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="DV30" t="n" s="10">
         <v>97.9</v>
@@ -13472,7 +13472,7 @@
         <v>97.4</v>
       </c>
       <c r="DZ30" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="EA30" t="n" s="10">
         <v>96.4</v>
@@ -13570,7 +13570,7 @@
         <v>85.7</v>
       </c>
       <c r="AC31" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="AD31" t="n" s="10">
         <v>85.8</v>
@@ -13585,7 +13585,7 @@
         <v>86.4</v>
       </c>
       <c r="AH31" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="AI31" t="n" s="10">
         <v>87.3</v>
@@ -13594,7 +13594,7 @@
         <v>87.7</v>
       </c>
       <c r="AK31" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="AL31" t="n" s="10">
         <v>88.4</v>
@@ -13687,7 +13687,7 @@
         <v>97.8</v>
       </c>
       <c r="BP31" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="BQ31" t="n" s="10">
         <v>99.2</v>
@@ -13696,31 +13696,31 @@
         <v>100.0</v>
       </c>
       <c r="BS31" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="BT31" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="BU31" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="BV31" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="BW31" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="BX31" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="BY31" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="BZ31" t="n" s="10">
         <v>104.7</v>
       </c>
       <c r="CA31" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="CB31" t="n" s="10">
         <v>105.8</v>
@@ -13756,7 +13756,7 @@
         <v>106.2</v>
       </c>
       <c r="CM31" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="CN31" t="n" s="10">
         <v>102.2</v>
@@ -13801,7 +13801,7 @@
         <v>80.8</v>
       </c>
       <c r="DB31" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="DC31" t="n" s="10">
         <v>83.5</v>
@@ -13849,16 +13849,16 @@
         <v>98.4</v>
       </c>
       <c r="DR31" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="DT31" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="DV31" t="n" s="10">
         <v>100.5</v>
@@ -13885,7 +13885,7 @@
         <v>99.3</v>
       </c>
       <c r="ED31" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="32">
@@ -13965,19 +13965,19 @@
         <v>67.4</v>
       </c>
       <c r="AA32" t="n" s="10">
+        <v>67.1</v>
+      </c>
+      <c r="AB32" t="n" s="10">
         <v>67.2</v>
       </c>
-      <c r="AB32" t="n" s="10">
-        <v>67.4</v>
-      </c>
       <c r="AC32" t="n" s="10">
-        <v>67.4</v>
+        <v>67.3</v>
       </c>
       <c r="AD32" t="n" s="10">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="AE32" t="n" s="10">
-        <v>67.2</v>
+        <v>67.1</v>
       </c>
       <c r="AF32" t="n" s="10">
         <v>67.2</v>
@@ -13995,19 +13995,19 @@
         <v>69.4</v>
       </c>
       <c r="AK32" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="AL32" t="n" s="10">
         <v>70.5</v>
       </c>
       <c r="AM32" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="AN32" t="n" s="10">
-        <v>71.8</v>
+        <v>71.9</v>
       </c>
       <c r="AO32" t="n" s="10">
-        <v>72.4</v>
+        <v>72.5</v>
       </c>
       <c r="AP32" t="n" s="10">
         <v>73.0</v>
@@ -14019,13 +14019,13 @@
         <v>73.7</v>
       </c>
       <c r="AS32" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="AT32" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="AU32" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AV32" t="n" s="10">
         <v>74.7</v>
@@ -14040,7 +14040,7 @@
         <v>75.8</v>
       </c>
       <c r="AZ32" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="BA32" t="n" s="10">
         <v>76.8</v>
@@ -14049,7 +14049,7 @@
         <v>77.5</v>
       </c>
       <c r="BC32" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="BD32" t="n" s="10">
         <v>79.4</v>
@@ -14058,10 +14058,10 @@
         <v>80.4</v>
       </c>
       <c r="BF32" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="BG32" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="BH32" t="n" s="10">
         <v>83.5</v>
@@ -14070,10 +14070,10 @@
         <v>84.4</v>
       </c>
       <c r="BJ32" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="BK32" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BL32" t="n" s="10">
         <v>86.6</v>
@@ -14091,22 +14091,22 @@
         <v>88.6</v>
       </c>
       <c r="BQ32" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="BR32" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="BS32" t="n" s="10">
         <v>90.6</v>
       </c>
       <c r="BT32" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="BU32" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="BV32" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="BW32" t="n" s="10">
         <v>94.2</v>
@@ -14115,7 +14115,7 @@
         <v>95.3</v>
       </c>
       <c r="BY32" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="BZ32" t="n" s="10">
         <v>97.4</v>
@@ -14133,16 +14133,16 @@
         <v>100.9</v>
       </c>
       <c r="CE32" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="CF32" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="CG32" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CH32" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CI32" t="n" s="10">
         <v>102.3</v>
@@ -14160,34 +14160,34 @@
         <v>96.4</v>
       </c>
       <c r="CN32" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="CO32" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="CP32" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="CQ32" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="CR32" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="CS32" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="CT32" t="n" s="10">
-        <v>73.2</v>
+        <v>73.0</v>
       </c>
       <c r="CU32" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="CV32" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="CW32" t="n" s="10">
-        <v>67.5</v>
+        <v>67.4</v>
       </c>
       <c r="CX32" t="n" s="10">
         <v>66.8</v>
@@ -14196,7 +14196,7 @@
         <v>66.8</v>
       </c>
       <c r="CZ32" t="n" s="10">
-        <v>67.5</v>
+        <v>67.4</v>
       </c>
       <c r="DA32" t="n" s="10">
         <v>68.5</v>
@@ -14220,7 +14220,7 @@
         <v>79.4</v>
       </c>
       <c r="DH32" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="DI32" t="n" s="10">
         <v>82.6</v>
@@ -14229,7 +14229,7 @@
         <v>84.1</v>
       </c>
       <c r="DK32" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="DL32" t="n" s="10">
         <v>87.0</v>
@@ -14280,7 +14280,7 @@
         <v>93.0</v>
       </c>
       <c r="EB32" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="EC32" t="n" s="10">
         <v>92.1</v>
@@ -14366,7 +14366,7 @@
         <v>36</v>
       </c>
       <c r="AA33" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="AB33" t="n" s="10">
         <v>82.7</v>
@@ -14375,7 +14375,7 @@
         <v>82.2</v>
       </c>
       <c r="AD33" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="AE33" t="n" s="10">
         <v>81.0</v>
@@ -14402,7 +14402,7 @@
         <v>83.3</v>
       </c>
       <c r="AM33" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="AN33" t="n" s="10">
         <v>85.1</v>
@@ -14417,13 +14417,13 @@
         <v>87.5</v>
       </c>
       <c r="AR33" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="AS33" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="AT33" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="AU33" t="n" s="10">
         <v>89.5</v>
@@ -14432,7 +14432,7 @@
         <v>89.7</v>
       </c>
       <c r="AW33" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="AX33" t="n" s="10">
         <v>89.9</v>
@@ -14459,7 +14459,7 @@
         <v>95.0</v>
       </c>
       <c r="BF33" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BG33" t="n" s="10">
         <v>97.5</v>
@@ -14468,13 +14468,13 @@
         <v>98.7</v>
       </c>
       <c r="BI33" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BJ33" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="BK33" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="BL33" t="n" s="10">
         <v>101.4</v>
@@ -14495,7 +14495,7 @@
         <v>103.1</v>
       </c>
       <c r="BR33" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="BS33" t="n" s="10">
         <v>104.2</v>
@@ -14504,22 +14504,22 @@
         <v>104.8</v>
       </c>
       <c r="BU33" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="BV33" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="BW33" t="n" s="10">
         <v>107.8</v>
       </c>
       <c r="BX33" t="n" s="10">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="BY33" t="n" s="10">
         <v>110.6</v>
       </c>
       <c r="BZ33" t="n" s="10">
-        <v>111.9</v>
+        <v>112.0</v>
       </c>
       <c r="CA33" t="n" s="10">
         <v>113.3</v>
@@ -14585,7 +14585,7 @@
         <v>79.4</v>
       </c>
       <c r="CV33" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="CW33" t="n" s="10">
         <v>76.1</v>
@@ -14630,7 +14630,7 @@
         <v>91.7</v>
       </c>
       <c r="DK33" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="DL33" t="n" s="10">
         <v>94.2</v>
@@ -14639,7 +14639,7 @@
         <v>95.4</v>
       </c>
       <c r="DN33" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DO33" t="n" s="10">
         <v>97.8</v>
@@ -14648,7 +14648,7 @@
         <v>98.8</v>
       </c>
       <c r="DQ33" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DR33" t="n" s="10">
         <v>100.7</v>
@@ -14672,16 +14672,16 @@
         <v>101.4</v>
       </c>
       <c r="DY33" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="DZ33" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="EA33" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="EB33" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="EC33" t="n" s="10">
         <v>95.9</v>
@@ -14770,40 +14770,40 @@
         <v>57.4</v>
       </c>
       <c r="AB34" t="n" s="10">
-        <v>58.0</v>
+        <v>57.9</v>
       </c>
       <c r="AC34" t="n" s="10">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="AD34" t="n" s="10">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="AE34" t="n" s="10">
         <v>58.8</v>
       </c>
       <c r="AF34" t="n" s="10">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="AG34" t="n" s="10">
-        <v>59.8</v>
+        <v>59.9</v>
       </c>
       <c r="AH34" t="n" s="10">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="AI34" t="n" s="10">
-        <v>61.2</v>
+        <v>61.3</v>
       </c>
       <c r="AJ34" t="n" s="10">
-        <v>61.8</v>
+        <v>61.9</v>
       </c>
       <c r="AK34" t="n" s="10">
         <v>62.4</v>
       </c>
       <c r="AL34" t="n" s="10">
-        <v>62.8</v>
+        <v>62.9</v>
       </c>
       <c r="AM34" t="n" s="10">
-        <v>63.3</v>
+        <v>63.4</v>
       </c>
       <c r="AN34" t="n" s="10">
         <v>63.9</v>
@@ -14821,19 +14821,19 @@
         <v>64.9</v>
       </c>
       <c r="AS34" t="n" s="10">
-        <v>65.0</v>
+        <v>64.9</v>
       </c>
       <c r="AT34" t="n" s="10">
         <v>65.1</v>
       </c>
       <c r="AU34" t="n" s="10">
-        <v>65.3</v>
+        <v>65.2</v>
       </c>
       <c r="AV34" t="n" s="10">
         <v>65.5</v>
       </c>
       <c r="AW34" t="n" s="10">
-        <v>66.0</v>
+        <v>65.9</v>
       </c>
       <c r="AX34" t="n" s="10">
         <v>66.4</v>
@@ -14851,10 +14851,10 @@
         <v>68.8</v>
       </c>
       <c r="BC34" t="n" s="10">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="BD34" t="n" s="10">
-        <v>70.6</v>
+        <v>70.7</v>
       </c>
       <c r="BE34" t="n" s="10">
         <v>71.5</v>
@@ -14863,34 +14863,34 @@
         <v>72.4</v>
       </c>
       <c r="BG34" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="BH34" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="BI34" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="BJ34" t="n" s="10">
         <v>75.9</v>
       </c>
       <c r="BK34" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="BL34" t="n" s="10">
         <v>77.6</v>
       </c>
       <c r="BM34" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="BN34" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="BO34" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="BP34" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="BQ34" t="n" s="10">
         <v>81.1</v>
@@ -14902,13 +14902,13 @@
         <v>82.4</v>
       </c>
       <c r="BT34" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="BU34" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="BV34" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="BW34" t="n" s="10">
         <v>85.2</v>
@@ -14929,28 +14929,28 @@
         <v>88.8</v>
       </c>
       <c r="CC34" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="CD34" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="CE34" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="CF34" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="CG34" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="CH34" t="n" s="10">
+        <v>91.8</v>
+      </c>
+      <c r="CI34" t="n" s="10">
         <v>91.9</v>
       </c>
-      <c r="CI34" t="n" s="10">
-        <v>92.0</v>
-      </c>
       <c r="CJ34" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="CK34" t="n" s="10">
         <v>91.0</v>
@@ -14959,7 +14959,7 @@
         <v>89.8</v>
       </c>
       <c r="CM34" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="CN34" t="n" s="10">
         <v>85.6</v>
@@ -14971,25 +14971,25 @@
         <v>80.0</v>
       </c>
       <c r="CQ34" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="CR34" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="CS34" t="n" s="10">
-        <v>70.5</v>
+        <v>70.6</v>
       </c>
       <c r="CT34" t="n" s="10">
         <v>67.7</v>
       </c>
       <c r="CU34" t="n" s="10">
-        <v>65.2</v>
+        <v>65.3</v>
       </c>
       <c r="CV34" t="n" s="10">
         <v>63.4</v>
       </c>
       <c r="CW34" t="n" s="10">
-        <v>62.2</v>
+        <v>62.3</v>
       </c>
       <c r="CX34" t="n" s="10">
         <v>61.7</v>
@@ -15007,40 +15007,40 @@
         <v>64.9</v>
       </c>
       <c r="DC34" t="n" s="10">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="DD34" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="DE34" t="n" s="10">
-        <v>70.7</v>
+        <v>70.6</v>
       </c>
       <c r="DF34" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="DG34" t="n" s="10">
         <v>74.4</v>
       </c>
       <c r="DH34" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="DI34" t="n" s="10">
         <v>77.8</v>
       </c>
       <c r="DJ34" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="DK34" t="n" s="10">
         <v>81.0</v>
       </c>
       <c r="DL34" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="DM34" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="DN34" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="DO34" t="n" s="10">
         <v>86.9</v>
@@ -15052,7 +15052,7 @@
         <v>89.3</v>
       </c>
       <c r="DR34" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DS34" t="n" s="10">
         <v>90.6</v>
@@ -15076,7 +15076,7 @@
         <v>90.1</v>
       </c>
       <c r="DZ34" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="EA34" t="n" s="10">
         <v>89.6</v>
@@ -23247,13 +23247,13 @@
         <v>82.8</v>
       </c>
       <c r="AN56" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="AO56" t="n" s="10">
         <v>83.9</v>
       </c>
       <c r="AP56" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="AQ56" t="n" s="10">
         <v>84.4</v>
@@ -23271,10 +23271,10 @@
         <v>84.0</v>
       </c>
       <c r="AV56" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="AW56" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="AX56" t="n" s="10">
         <v>83.8</v>
@@ -23301,85 +23301,85 @@
         <v>87.1</v>
       </c>
       <c r="BF56" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="BG56" t="n" s="10">
         <v>88.9</v>
       </c>
       <c r="BH56" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="BI56" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="BJ56" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="BK56" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="BL56" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="BM56" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BN56" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="BO56" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="BP56" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="BQ56" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="BR56" t="n" s="10">
-        <v>97.6</v>
+        <v>97.8</v>
       </c>
       <c r="BS56" t="n" s="10">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="BT56" t="n" s="10">
-        <v>98.7</v>
+        <v>99.1</v>
       </c>
       <c r="BU56" t="n" s="10">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="BV56" t="n" s="10">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="BW56" t="n" s="10">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="BX56" t="n" s="10">
-        <v>100.9</v>
+        <v>101.5</v>
       </c>
       <c r="BY56" t="n" s="10">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="BZ56" t="n" s="10">
-        <v>102.0</v>
+        <v>102.6</v>
       </c>
       <c r="CA56" t="n" s="10">
-        <v>102.7</v>
+        <v>103.2</v>
       </c>
       <c r="CB56" t="n" s="10">
-        <v>103.4</v>
+        <v>103.9</v>
       </c>
       <c r="CC56" t="n" s="10">
-        <v>104.0</v>
+        <v>104.4</v>
       </c>
       <c r="CD56" t="n" s="10">
-        <v>104.7</v>
+        <v>105.0</v>
       </c>
       <c r="CE56" t="n" s="10">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="CF56" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="CG56" t="n" s="10">
         <v>106.7</v>
@@ -23388,16 +23388,16 @@
         <v>107.2</v>
       </c>
       <c r="CI56" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="CJ56" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="CK56" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="CL56" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="CM56" t="n" s="10">
         <v>103.7</v>
@@ -23418,7 +23418,7 @@
         <v>88.8</v>
       </c>
       <c r="CS56" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CT56" t="n" s="10">
         <v>83.0</v>
@@ -23427,13 +23427,13 @@
         <v>80.8</v>
       </c>
       <c r="CV56" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="CW56" t="n" s="10">
         <v>78.1</v>
       </c>
       <c r="CX56" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="CY56" t="n" s="10">
         <v>78.1</v>
@@ -23445,7 +23445,7 @@
         <v>80.5</v>
       </c>
       <c r="DB56" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DC56" t="n" s="10">
         <v>84.6</v>
@@ -23454,7 +23454,7 @@
         <v>86.9</v>
       </c>
       <c r="DE56" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="DF56" t="n" s="10">
         <v>91.1</v>
@@ -23475,13 +23475,13 @@
         <v>97.3</v>
       </c>
       <c r="DL56" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DM56" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="DN56" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DO56" t="n" s="10">
         <v>100.7</v>
@@ -23502,34 +23502,34 @@
         <v>103.6</v>
       </c>
       <c r="DU56" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="DV56" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="DW56" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="DX56" t="n" s="10">
         <v>103.3</v>
       </c>
       <c r="DY56" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="DZ56" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="EA56" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="EB56" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="EC56" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="ED56" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="57">
@@ -23627,7 +23627,7 @@
         <v>83.6</v>
       </c>
       <c r="AG57" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="AH57" t="n" s="10">
         <v>84.5</v>
@@ -23642,10 +23642,10 @@
         <v>86.2</v>
       </c>
       <c r="AL57" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="AM57" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="AN57" t="n" s="10">
         <v>87.7</v>
@@ -23654,7 +23654,7 @@
         <v>88.1</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="AQ57" t="n" s="10">
         <v>88.4</v>
@@ -23663,7 +23663,7 @@
         <v>88.4</v>
       </c>
       <c r="AS57" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="AT57" t="n" s="10">
         <v>88.0</v>
@@ -23687,7 +23687,7 @@
         <v>86.8</v>
       </c>
       <c r="BA57" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="BB57" t="n" s="10">
         <v>87.2</v>
@@ -23699,7 +23699,7 @@
         <v>88.2</v>
       </c>
       <c r="BE57" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="BF57" t="n" s="10">
         <v>89.6</v>
@@ -23711,10 +23711,10 @@
         <v>91.2</v>
       </c>
       <c r="BI57" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="BJ57" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="BK57" t="n" s="10">
         <v>93.6</v>
@@ -23726,7 +23726,7 @@
         <v>95.1</v>
       </c>
       <c r="BN57" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="BO57" t="n" s="10">
         <v>96.5</v>
@@ -23738,7 +23738,7 @@
         <v>97.7</v>
       </c>
       <c r="BR57" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="BS57" t="n" s="10">
         <v>99.0</v>
@@ -23753,16 +23753,16 @@
         <v>100.5</v>
       </c>
       <c r="BW57" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="BX57" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="BY57" t="n" s="10">
         <v>101.9</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CA57" t="n" s="10">
         <v>103.1</v>
@@ -23774,7 +23774,7 @@
         <v>104.3</v>
       </c>
       <c r="CD57" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="CE57" t="n" s="10">
         <v>105.6</v>
@@ -23864,10 +23864,10 @@
         <v>95.4</v>
       </c>
       <c r="DH57" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="DJ57" t="n" s="10">
         <v>99.2</v>
@@ -23879,28 +23879,28 @@
         <v>100.8</v>
       </c>
       <c r="DM57" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="DN57" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="DO57" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="DP57" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="DQ57" t="n" s="10">
         <v>104.5</v>
       </c>
       <c r="DR57" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="DS57" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="DU57" t="n" s="10">
         <v>106.2</v>
@@ -23912,7 +23912,7 @@
         <v>106.3</v>
       </c>
       <c r="DX57" t="n" s="10">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="DY57" t="n" s="10">
         <v>105.8</v>
@@ -23921,7 +23921,7 @@
         <v>105.4</v>
       </c>
       <c r="EA57" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="EB57" t="n" s="10">
         <v>104.2</v>
@@ -24046,10 +24046,10 @@
         <v>77.1</v>
       </c>
       <c r="AM58" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="AN58" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="AO58" t="n" s="10">
         <v>79.2</v>
@@ -24058,7 +24058,7 @@
         <v>79.6</v>
       </c>
       <c r="AQ58" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="AR58" t="n" s="10">
         <v>79.9</v>
@@ -24073,7 +24073,7 @@
         <v>79.9</v>
       </c>
       <c r="AV58" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="AW58" t="n" s="10">
         <v>80.1</v>
@@ -24097,7 +24097,7 @@
         <v>83.2</v>
       </c>
       <c r="BD58" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="BE58" t="n" s="10">
         <v>85.2</v>
@@ -24118,7 +24118,7 @@
         <v>90.4</v>
       </c>
       <c r="BK58" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="BL58" t="n" s="10">
         <v>92.3</v>
@@ -24130,55 +24130,55 @@
         <v>94.0</v>
       </c>
       <c r="BO58" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="BP58" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="BQ58" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="BR58" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="BS58" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="BT58" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="BU58" t="n" s="10">
-        <v>98.6</v>
+        <v>98.8</v>
       </c>
       <c r="BV58" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="BW58" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="BX58" t="n" s="10">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="BY58" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="BZ58" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="CA58" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="CB58" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="CC58" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="CD58" t="n" s="10">
         <v>104.4</v>
       </c>
       <c r="CE58" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="CF58" t="n" s="10">
         <v>105.5</v>
@@ -24190,7 +24190,7 @@
         <v>106.3</v>
       </c>
       <c r="CI58" t="n" s="10">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="CJ58" t="n" s="10">
         <v>106.3</v>
@@ -24253,7 +24253,7 @@
         <v>82.7</v>
       </c>
       <c r="DD58" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DE58" t="n" s="10">
         <v>86.6</v>
@@ -24262,25 +24262,25 @@
         <v>88.4</v>
       </c>
       <c r="DG58" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="DH58" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="DI58" t="n" s="10">
         <v>92.3</v>
       </c>
       <c r="DJ58" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DK58" t="n" s="10">
         <v>94.2</v>
       </c>
       <c r="DL58" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="DM58" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="DN58" t="n" s="10">
         <v>97.1</v>
@@ -24289,7 +24289,7 @@
         <v>98.0</v>
       </c>
       <c r="DP58" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="DQ58" t="n" s="10">
         <v>99.7</v>
@@ -24319,7 +24319,7 @@
         <v>99.7</v>
       </c>
       <c r="DZ58" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="EA58" t="n" s="10">
         <v>98.7</v>
@@ -24429,7 +24429,7 @@
         <v>80.0</v>
       </c>
       <c r="AG59" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="AH59" t="n" s="10">
         <v>81.0</v>
@@ -24438,7 +24438,7 @@
         <v>81.8</v>
       </c>
       <c r="AJ59" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="AK59" t="n" s="10">
         <v>83.5</v>
@@ -24495,7 +24495,7 @@
         <v>89.7</v>
       </c>
       <c r="BC59" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="BD59" t="n" s="10">
         <v>90.7</v>
@@ -24504,10 +24504,10 @@
         <v>91.5</v>
       </c>
       <c r="BF59" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BG59" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="BH59" t="n" s="10">
         <v>94.2</v>
@@ -24537,61 +24537,61 @@
         <v>99.2</v>
       </c>
       <c r="BQ59" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BR59" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="BS59" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="BT59" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="BU59" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="BV59" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="BW59" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="BX59" t="n" s="10">
         <v>103.0</v>
       </c>
       <c r="BY59" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="BZ59" t="n" s="10">
         <v>103.8</v>
       </c>
       <c r="CA59" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="CB59" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="CC59" t="n" s="10">
         <v>104.9</v>
       </c>
       <c r="CD59" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="CE59" t="n" s="10">
         <v>105.8</v>
       </c>
       <c r="CF59" t="n" s="10">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="CG59" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="CH59" t="n" s="10">
         <v>107.5</v>
       </c>
       <c r="CI59" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="CJ59" t="n" s="10">
         <v>107.7</v>
@@ -24621,7 +24621,7 @@
         <v>89.7</v>
       </c>
       <c r="CS59" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="CT59" t="n" s="10">
         <v>84.0</v>
@@ -24630,7 +24630,7 @@
         <v>81.8</v>
       </c>
       <c r="CV59" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="CW59" t="n" s="10">
         <v>79.0</v>
@@ -24642,7 +24642,7 @@
         <v>79.0</v>
       </c>
       <c r="CZ59" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="DA59" t="n" s="10">
         <v>81.4</v>
@@ -24663,10 +24663,10 @@
         <v>90.6</v>
       </c>
       <c r="DG59" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DH59" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DI59" t="n" s="10">
         <v>94.2</v>
@@ -24693,10 +24693,10 @@
         <v>100.5</v>
       </c>
       <c r="DQ59" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="DR59" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="DS59" t="n" s="10">
         <v>102.7</v>
@@ -24717,13 +24717,13 @@
         <v>102.3</v>
       </c>
       <c r="DY59" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="DZ59" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="EA59" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="EB59" t="n" s="10">
         <v>99.3</v>
@@ -24818,28 +24818,28 @@
         <v>64.2</v>
       </c>
       <c r="AC60" t="n" s="10">
-        <v>64.7</v>
+        <v>64.8</v>
       </c>
       <c r="AD60" t="n" s="10">
-        <v>64.9</v>
+        <v>65.0</v>
       </c>
       <c r="AE60" t="n" s="10">
-        <v>65.2</v>
+        <v>65.3</v>
       </c>
       <c r="AF60" t="n" s="10">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="AG60" t="n" s="10">
-        <v>66.6</v>
+        <v>66.7</v>
       </c>
       <c r="AH60" t="n" s="10">
-        <v>67.8</v>
+        <v>67.9</v>
       </c>
       <c r="AI60" t="n" s="10">
         <v>68.8</v>
       </c>
       <c r="AJ60" t="n" s="10">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="AK60" t="n" s="10">
         <v>70.1</v>
@@ -24848,34 +24848,34 @@
         <v>70.6</v>
       </c>
       <c r="AM60" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="AN60" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="AO60" t="n" s="10">
         <v>72.0</v>
       </c>
       <c r="AP60" t="n" s="10">
-        <v>72.2</v>
+        <v>72.1</v>
       </c>
       <c r="AQ60" t="n" s="10">
         <v>72.0</v>
       </c>
       <c r="AR60" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="AS60" t="n" s="10">
+        <v>71.4</v>
+      </c>
+      <c r="AT60" t="n" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="AU60" t="n" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="AV60" t="n" s="10">
         <v>71.5</v>
-      </c>
-      <c r="AT60" t="n" s="10">
-        <v>71.4</v>
-      </c>
-      <c r="AU60" t="n" s="10">
-        <v>71.4</v>
-      </c>
-      <c r="AV60" t="n" s="10">
-        <v>71.6</v>
       </c>
       <c r="AW60" t="n" s="10">
         <v>71.9</v>
@@ -24890,7 +24890,7 @@
         <v>74.1</v>
       </c>
       <c r="BA60" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="BB60" t="n" s="10">
         <v>76.0</v>
@@ -24899,118 +24899,118 @@
         <v>77.1</v>
       </c>
       <c r="BD60" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="BE60" t="n" s="10">
         <v>79.6</v>
       </c>
       <c r="BF60" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="BG60" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="BH60" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="BI60" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="BJ60" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="BK60" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="BL60" t="n" s="10">
-        <v>87.9</v>
+        <v>87.7</v>
       </c>
       <c r="BM60" t="n" s="10">
-        <v>89.1</v>
+        <v>88.9</v>
       </c>
       <c r="BN60" t="n" s="10">
-        <v>90.2</v>
+        <v>90.0</v>
       </c>
       <c r="BO60" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="BP60" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="BQ60" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="BR60" t="n" s="10">
-        <v>93.9</v>
+        <v>94.2</v>
       </c>
       <c r="BS60" t="n" s="10">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="BT60" t="n" s="10">
-        <v>95.6</v>
+        <v>96.3</v>
       </c>
       <c r="BU60" t="n" s="10">
-        <v>96.4</v>
+        <v>97.2</v>
       </c>
       <c r="BV60" t="n" s="10">
-        <v>97.2</v>
+        <v>98.1</v>
       </c>
       <c r="BW60" t="n" s="10">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="BX60" t="n" s="10">
-        <v>98.9</v>
+        <v>100.0</v>
       </c>
       <c r="BY60" t="n" s="10">
-        <v>99.8</v>
+        <v>100.9</v>
       </c>
       <c r="BZ60" t="n" s="10">
-        <v>100.7</v>
+        <v>101.8</v>
       </c>
       <c r="CA60" t="n" s="10">
-        <v>101.6</v>
+        <v>102.5</v>
       </c>
       <c r="CB60" t="n" s="10">
-        <v>102.5</v>
+        <v>103.3</v>
       </c>
       <c r="CC60" t="n" s="10">
-        <v>103.1</v>
+        <v>103.8</v>
       </c>
       <c r="CD60" t="n" s="10">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="CE60" t="n" s="10">
-        <v>104.3</v>
+        <v>104.7</v>
       </c>
       <c r="CF60" t="n" s="10">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="CG60" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="CH60" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="CI60" t="n" s="10">
-        <v>105.2</v>
+        <v>105.0</v>
       </c>
       <c r="CJ60" t="n" s="10">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="CK60" t="n" s="10">
-        <v>104.2</v>
+        <v>104.0</v>
       </c>
       <c r="CL60" t="n" s="10">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="CM60" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CN60" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="CO60" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="CP60" t="n" s="10">
         <v>94.3</v>
@@ -25022,10 +25022,10 @@
         <v>88.5</v>
       </c>
       <c r="CS60" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CT60" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="CU60" t="n" s="10">
         <v>80.5</v>
@@ -25034,19 +25034,19 @@
         <v>78.6</v>
       </c>
       <c r="CW60" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="CX60" t="n" s="10">
         <v>76.3</v>
       </c>
       <c r="CY60" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="CZ60" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="DA60" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="DB60" t="n" s="10">
         <v>78.8</v>
@@ -25055,13 +25055,13 @@
         <v>80.5</v>
       </c>
       <c r="DD60" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DE60" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="DF60" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DG60" t="n" s="10">
         <v>87.9</v>
@@ -25079,7 +25079,7 @@
         <v>92.6</v>
       </c>
       <c r="DL60" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DM60" t="n" s="10">
         <v>94.7</v>
@@ -25094,7 +25094,7 @@
         <v>97.5</v>
       </c>
       <c r="DQ60" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DR60" t="n" s="10">
         <v>98.5</v>
@@ -25109,31 +25109,31 @@
         <v>98.7</v>
       </c>
       <c r="DV60" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DW60" t="n" s="10">
         <v>98.4</v>
       </c>
       <c r="DX60" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DY60" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="DZ60" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="EA60" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="EB60" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="EC60" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="ED60" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="61" ht="33.75" customHeight="true">
@@ -33268,7 +33268,7 @@
         <v>72.0</v>
       </c>
       <c r="AF82" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="AG82" t="n" s="10">
         <v>72.3</v>
@@ -33295,10 +33295,10 @@
         <v>75.5</v>
       </c>
       <c r="AO82" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AP82" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="AQ82" t="n" s="10">
         <v>76.9</v>
@@ -33343,7 +33343,7 @@
         <v>82.6</v>
       </c>
       <c r="BE82" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="BF82" t="n" s="10">
         <v>84.1</v>
@@ -33355,7 +33355,7 @@
         <v>85.7</v>
       </c>
       <c r="BI82" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="BJ82" t="n" s="10">
         <v>87.1</v>
@@ -33376,7 +33376,7 @@
         <v>89.6</v>
       </c>
       <c r="BP82" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="BQ82" t="n" s="10">
         <v>90.7</v>
@@ -33388,13 +33388,13 @@
         <v>92.2</v>
       </c>
       <c r="BT82" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="BU82" t="n" s="10">
         <v>93.8</v>
       </c>
       <c r="BV82" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="BW82" t="n" s="10">
         <v>95.8</v>
@@ -33424,10 +33424,10 @@
         <v>102.9</v>
       </c>
       <c r="CF82" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="CG82" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="CH82" t="n" s="10">
         <v>103.8</v>
@@ -33454,10 +33454,10 @@
         <v>91.0</v>
       </c>
       <c r="CP82" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="CQ82" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="CR82" t="n" s="10">
         <v>80.0</v>
@@ -33469,7 +33469,7 @@
         <v>73.7</v>
       </c>
       <c r="CU82" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="CV82" t="n" s="10">
         <v>69.2</v>
@@ -33505,13 +33505,13 @@
         <v>75.8</v>
       </c>
       <c r="DG82" t="n" s="10">
-        <v>77.4</v>
+        <v>77.3</v>
       </c>
       <c r="DH82" t="n" s="10">
         <v>78.9</v>
       </c>
       <c r="DI82" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="DJ82" t="n" s="10">
         <v>81.9</v>
@@ -33532,7 +33532,7 @@
         <v>89.5</v>
       </c>
       <c r="DP82" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="DQ82" t="n" s="10">
         <v>92.2</v>
@@ -33654,7 +33654,7 @@
         <v>84.1</v>
       </c>
       <c r="AA83" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="AB83" t="n" s="10">
         <v>84.5</v>
@@ -33666,7 +33666,7 @@
         <v>84.6</v>
       </c>
       <c r="AE83" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="AF83" t="n" s="10">
         <v>84.9</v>
@@ -33675,34 +33675,34 @@
         <v>85.1</v>
       </c>
       <c r="AH83" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="AI83" t="n" s="10">
         <v>85.8</v>
       </c>
       <c r="AJ83" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="AK83" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="AL83" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="AM83" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="AN83" t="n" s="10">
         <v>87.5</v>
       </c>
       <c r="AO83" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="AP83" t="n" s="10">
         <v>88.1</v>
       </c>
       <c r="AQ83" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="AR83" t="n" s="10">
         <v>88.4</v>
@@ -33711,7 +33711,7 @@
         <v>88.6</v>
       </c>
       <c r="AT83" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="AU83" t="n" s="10">
         <v>89.0</v>
@@ -33723,7 +33723,7 @@
         <v>89.5</v>
       </c>
       <c r="AX83" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="AY83" t="n" s="10">
         <v>90.2</v>
@@ -33735,34 +33735,34 @@
         <v>90.8</v>
       </c>
       <c r="BB83" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="BC83" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="BD83" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="BE83" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="BF83" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="BG83" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="BH83" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="BI83" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="BJ83" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BK83" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="BL83" t="n" s="10">
         <v>94.7</v>
@@ -33780,37 +33780,37 @@
         <v>97.0</v>
       </c>
       <c r="BQ83" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="BR83" t="n" s="10">
         <v>98.8</v>
       </c>
       <c r="BS83" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BT83" t="n" s="10">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="BU83" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="BV83" t="n" s="10">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="BW83" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="BX83" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="BY83" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="BZ83" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="CA83" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="CB83" t="n" s="10">
         <v>105.3</v>
@@ -33819,13 +33819,13 @@
         <v>105.7</v>
       </c>
       <c r="CD83" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="CE83" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="CF83" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="CG83" t="n" s="10">
         <v>107.0</v>
@@ -33837,7 +33837,7 @@
         <v>106.7</v>
       </c>
       <c r="CJ83" t="n" s="10">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="CK83" t="n" s="10">
         <v>105.3</v>
@@ -33858,7 +33858,7 @@
         <v>95.0</v>
       </c>
       <c r="CQ83" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="CR83" t="n" s="10">
         <v>89.4</v>
@@ -33873,10 +33873,10 @@
         <v>82.3</v>
       </c>
       <c r="CV83" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="CW83" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="CX83" t="n" s="10">
         <v>78.2</v>
@@ -33888,7 +33888,7 @@
         <v>77.6</v>
       </c>
       <c r="DA83" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="DB83" t="n" s="10">
         <v>78.4</v>
@@ -33906,13 +33906,13 @@
         <v>82.0</v>
       </c>
       <c r="DG83" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="DH83" t="n" s="10">
         <v>83.9</v>
       </c>
       <c r="DI83" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="DJ83" t="n" s="10">
         <v>85.8</v>
@@ -33939,28 +33939,28 @@
         <v>93.3</v>
       </c>
       <c r="DR83" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DS83" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="DT83" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="DU83" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="DV83" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="DW83" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DZ83" t="n" s="10">
         <v>96.2</v>
@@ -33975,7 +33975,7 @@
         <v>95.4</v>
       </c>
       <c r="ED83" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="84">
@@ -34055,40 +34055,40 @@
         <v>64.7</v>
       </c>
       <c r="AA84" t="n" s="10">
+        <v>64.3</v>
+      </c>
+      <c r="AB84" t="n" s="10">
         <v>64.4</v>
       </c>
-      <c r="AB84" t="n" s="10">
-        <v>64.5</v>
-      </c>
       <c r="AC84" t="n" s="10">
-        <v>64.5</v>
+        <v>64.4</v>
       </c>
       <c r="AD84" t="n" s="10">
+        <v>64.3</v>
+      </c>
+      <c r="AE84" t="n" s="10">
         <v>64.2</v>
       </c>
-      <c r="AE84" t="n" s="10">
-        <v>64.1</v>
-      </c>
       <c r="AF84" t="n" s="10">
-        <v>64.1</v>
+        <v>64.2</v>
       </c>
       <c r="AG84" t="n" s="10">
-        <v>64.3</v>
+        <v>64.4</v>
       </c>
       <c r="AH84" t="n" s="10">
-        <v>64.8</v>
+        <v>64.9</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>65.3</v>
+        <v>65.4</v>
       </c>
       <c r="AJ84" t="n" s="10">
-        <v>65.8</v>
+        <v>65.9</v>
       </c>
       <c r="AK84" t="n" s="10">
         <v>66.4</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>66.9</v>
+        <v>67.0</v>
       </c>
       <c r="AM84" t="n" s="10">
         <v>67.6</v>
@@ -34106,13 +34106,13 @@
         <v>70.0</v>
       </c>
       <c r="AR84" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="AS84" t="n" s="10">
         <v>70.8</v>
       </c>
       <c r="AT84" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="AU84" t="n" s="10">
         <v>71.6</v>
@@ -34124,7 +34124,7 @@
         <v>72.3</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="AY84" t="n" s="10">
         <v>73.1</v>
@@ -34139,7 +34139,7 @@
         <v>75.0</v>
       </c>
       <c r="BC84" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="BD84" t="n" s="10">
         <v>77.1</v>
@@ -34154,25 +34154,25 @@
         <v>80.4</v>
       </c>
       <c r="BH84" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="BI84" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="BJ84" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="BK84" t="n" s="10">
         <v>83.9</v>
       </c>
       <c r="BL84" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="BM84" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="BO84" t="n" s="10">
         <v>85.5</v>
@@ -34181,16 +34181,16 @@
         <v>85.8</v>
       </c>
       <c r="BQ84" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="BR84" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="BS84" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="BT84" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="BU84" t="n" s="10">
         <v>89.3</v>
@@ -34199,7 +34199,7 @@
         <v>90.4</v>
       </c>
       <c r="BW84" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="BX84" t="n" s="10">
         <v>92.9</v>
@@ -34214,31 +34214,31 @@
         <v>96.8</v>
       </c>
       <c r="CB84" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="CC84" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="CD84" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="CE84" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="CF84" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CG84" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="CH84" t="n" s="10">
         <v>101.8</v>
       </c>
-      <c r="CH84" t="n" s="10">
-        <v>101.9</v>
-      </c>
       <c r="CI84" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CJ84" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CK84" t="n" s="10">
         <v>99.1</v>
@@ -34247,7 +34247,7 @@
         <v>97.0</v>
       </c>
       <c r="CM84" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="CN84" t="n" s="10">
         <v>90.8</v>
@@ -34262,13 +34262,13 @@
         <v>78.8</v>
       </c>
       <c r="CR84" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="CS84" t="n" s="10">
         <v>70.7</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>67.3</v>
+        <v>67.4</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>64.6</v>
@@ -34298,16 +34298,16 @@
         <v>65.9</v>
       </c>
       <c r="DD84" t="n" s="10">
-        <v>68.0</v>
+        <v>67.9</v>
       </c>
       <c r="DE84" t="n" s="10">
-        <v>70.1</v>
+        <v>70.0</v>
       </c>
       <c r="DF84" t="n" s="10">
         <v>72.1</v>
       </c>
       <c r="DG84" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="DH84" t="n" s="10">
         <v>76.0</v>
@@ -34325,10 +34325,10 @@
         <v>83.3</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="DO84" t="n" s="10">
         <v>88.3</v>
@@ -34361,22 +34361,22 @@
         <v>92.7</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="EA84" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="EB84" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="85">
@@ -34471,22 +34471,22 @@
         <v>82.5</v>
       </c>
       <c r="AF85" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="AG85" t="n" s="10">
+        <v>81.7</v>
+      </c>
+      <c r="AH85" t="n" s="10">
         <v>81.9</v>
-      </c>
-      <c r="AG85" t="n" s="10">
-        <v>81.6</v>
-      </c>
-      <c r="AH85" t="n" s="10">
-        <v>81.8</v>
       </c>
       <c r="AI85" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="AJ85" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="AK85" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="AL85" t="n" s="10">
         <v>83.9</v>
@@ -34495,7 +34495,7 @@
         <v>84.8</v>
       </c>
       <c r="AN85" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="AO85" t="n" s="10">
         <v>86.7</v>
@@ -34510,13 +34510,13 @@
         <v>89.2</v>
       </c>
       <c r="AS85" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="AT85" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="AU85" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="AV85" t="n" s="10">
         <v>91.4</v>
@@ -34549,19 +34549,19 @@
         <v>100.0</v>
       </c>
       <c r="BF85" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="BG85" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="BH85" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="BI85" t="n" s="10">
         <v>106.4</v>
       </c>
       <c r="BJ85" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="BK85" t="n" s="10">
         <v>107.6</v>
@@ -34582,7 +34582,7 @@
         <v>107.9</v>
       </c>
       <c r="BQ85" t="n" s="10">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="BR85" t="n" s="10">
         <v>108.9</v>
@@ -34591,10 +34591,10 @@
         <v>109.5</v>
       </c>
       <c r="BT85" t="n" s="10">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="BU85" t="n" s="10">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="BV85" t="n" s="10">
         <v>112.7</v>
@@ -34624,7 +34624,7 @@
         <v>128.8</v>
       </c>
       <c r="CE85" t="n" s="10">
-        <v>130.4</v>
+        <v>130.3</v>
       </c>
       <c r="CF85" t="n" s="10">
         <v>131.6</v>
@@ -34663,46 +34663,46 @@
         <v>95.1</v>
       </c>
       <c r="CR85" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="CS85" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="CT85" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="CU85" t="n" s="10">
         <v>76.7</v>
       </c>
       <c r="CV85" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="CW85" t="n" s="10">
         <v>72.5</v>
       </c>
       <c r="CX85" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="CY85" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="CZ85" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="DA85" t="n" s="10">
         <v>72.4</v>
       </c>
       <c r="DB85" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="DC85" t="n" s="10">
         <v>75.9</v>
       </c>
       <c r="DD85" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="DE85" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="DF85" t="n" s="10">
         <v>82.1</v>
@@ -34717,7 +34717,7 @@
         <v>87.5</v>
       </c>
       <c r="DJ85" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="DK85" t="n" s="10">
         <v>90.9</v>
@@ -34738,7 +34738,7 @@
         <v>98.5</v>
       </c>
       <c r="DQ85" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DR85" t="n" s="10">
         <v>101.0</v>
@@ -34753,7 +34753,7 @@
         <v>103.0</v>
       </c>
       <c r="DV85" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="DW85" t="n" s="10">
         <v>103.0</v>
@@ -34762,13 +34762,13 @@
         <v>102.4</v>
       </c>
       <c r="DY85" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="DZ85" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="EA85" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="EB85" t="n" s="10">
         <v>97.3</v>
@@ -34860,7 +34860,7 @@
         <v>54.2</v>
       </c>
       <c r="AB86" t="n" s="10">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="AC86" t="n" s="10">
         <v>55.0</v>
@@ -34872,7 +34872,7 @@
         <v>55.4</v>
       </c>
       <c r="AF86" t="n" s="10">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="AG86" t="n" s="10">
         <v>56.3</v>
@@ -34899,52 +34899,52 @@
         <v>60.0</v>
       </c>
       <c r="AO86" t="n" s="10">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>61.0</v>
+        <v>60.9</v>
       </c>
       <c r="AQ86" t="n" s="10">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
       <c r="AR86" t="n" s="10">
+        <v>61.4</v>
+      </c>
+      <c r="AS86" t="n" s="10">
         <v>61.6</v>
       </c>
-      <c r="AS86" t="n" s="10">
+      <c r="AT86" t="n" s="10">
         <v>61.8</v>
       </c>
-      <c r="AT86" t="n" s="10">
-        <v>62.0</v>
-      </c>
       <c r="AU86" t="n" s="10">
-        <v>62.2</v>
+        <v>62.1</v>
       </c>
       <c r="AV86" t="n" s="10">
-        <v>62.5</v>
+        <v>62.4</v>
       </c>
       <c r="AW86" t="n" s="10">
-        <v>62.9</v>
+        <v>62.8</v>
       </c>
       <c r="AX86" t="n" s="10">
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="AY86" t="n" s="10">
-        <v>63.8</v>
+        <v>63.7</v>
       </c>
       <c r="AZ86" t="n" s="10">
-        <v>64.2</v>
+        <v>64.1</v>
       </c>
       <c r="BA86" t="n" s="10">
-        <v>64.7</v>
+        <v>64.6</v>
       </c>
       <c r="BB86" t="n" s="10">
         <v>65.3</v>
       </c>
       <c r="BC86" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="BD86" t="n" s="10">
-        <v>67.0</v>
+        <v>66.9</v>
       </c>
       <c r="BE86" t="n" s="10">
         <v>67.7</v>
@@ -34959,16 +34959,16 @@
         <v>70.2</v>
       </c>
       <c r="BI86" t="n" s="10">
-        <v>71.0</v>
+        <v>70.9</v>
       </c>
       <c r="BJ86" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="BK86" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="BL86" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="BM86" t="n" s="10">
         <v>73.9</v>
@@ -34983,73 +34983,73 @@
         <v>75.6</v>
       </c>
       <c r="BQ86" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="BR86" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="BS86" t="n" s="10">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="BT86" t="n" s="10">
-        <v>77.8</v>
+        <v>78.0</v>
       </c>
       <c r="BU86" t="n" s="10">
-        <v>78.4</v>
+        <v>78.6</v>
       </c>
       <c r="BV86" t="n" s="10">
-        <v>79.1</v>
+        <v>79.3</v>
       </c>
       <c r="BW86" t="n" s="10">
-        <v>79.8</v>
+        <v>80.0</v>
       </c>
       <c r="BX86" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="BY86" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="BZ86" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="CA86" t="n" s="10">
-        <v>82.2</v>
+        <v>82.4</v>
       </c>
       <c r="CB86" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="CC86" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="CD86" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="CE86" t="n" s="10">
         <v>85.3</v>
       </c>
       <c r="CF86" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="CG86" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="CH86" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="CI86" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="CJ86" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="CK86" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="CL86" t="n" s="10">
         <v>84.8</v>
       </c>
       <c r="CM86" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="CN86" t="n" s="10">
         <v>80.4</v>
@@ -35058,7 +35058,7 @@
         <v>77.6</v>
       </c>
       <c r="CP86" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="CQ86" t="n" s="10">
         <v>71.1</v>
@@ -35067,7 +35067,7 @@
         <v>67.6</v>
       </c>
       <c r="CS86" t="n" s="10">
-        <v>64.3</v>
+        <v>64.4</v>
       </c>
       <c r="CT86" t="n" s="10">
         <v>61.4</v>
@@ -35094,82 +35094,82 @@
         <v>57.5</v>
       </c>
       <c r="DB86" t="n" s="10">
-        <v>59.2</v>
+        <v>59.1</v>
       </c>
       <c r="DC86" t="n" s="10">
-        <v>61.1</v>
+        <v>61.0</v>
       </c>
       <c r="DD86" t="n" s="10">
-        <v>63.1</v>
+        <v>63.0</v>
       </c>
       <c r="DE86" t="n" s="10">
-        <v>65.2</v>
+        <v>65.1</v>
       </c>
       <c r="DF86" t="n" s="10">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="DG86" t="n" s="10">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="DI86" t="n" s="10">
-        <v>73.3</v>
+        <v>73.1</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DN86" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="DO86" t="n" s="10">
-        <v>84.1</v>
+        <v>83.9</v>
       </c>
       <c r="DP86" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="DQ86" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="DR86" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DS86" t="n" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="DT86" t="n" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="DU86" t="n" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="DV86" t="n" s="10">
         <v>88.4</v>
-      </c>
-      <c r="DT86" t="n" s="10">
-        <v>88.7</v>
-      </c>
-      <c r="DU86" t="n" s="10">
-        <v>88.6</v>
-      </c>
-      <c r="DV86" t="n" s="10">
-        <v>88.5</v>
       </c>
       <c r="DW86" t="n" s="10">
         <v>88.3</v>
       </c>
       <c r="DX86" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="DY86" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="DZ86" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="EA86" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="EB86" t="n" s="10">
         <v>87.4</v>
@@ -43301,7 +43301,7 @@
         <v>90.3</v>
       </c>
       <c r="AB108" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="AC108" t="n" s="10">
         <v>90.3</v>
@@ -43316,13 +43316,13 @@
         <v>89.4</v>
       </c>
       <c r="AG108" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="AH108" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="AI108" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="AJ108" t="n" s="10">
         <v>89.9</v>
@@ -43334,13 +43334,13 @@
         <v>89.9</v>
       </c>
       <c r="AM108" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="AN108" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="AO108" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="AP108" t="n" s="10">
         <v>90.0</v>
@@ -43355,7 +43355,7 @@
         <v>90.0</v>
       </c>
       <c r="AT108" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="AU108" t="n" s="10">
         <v>90.4</v>
@@ -43370,10 +43370,10 @@
         <v>91.6</v>
       </c>
       <c r="AY108" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="AZ108" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="BA108" t="n" s="10">
         <v>93.1</v>
@@ -43436,7 +43436,7 @@
         <v>101.5</v>
       </c>
       <c r="BU108" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="BV108" t="n" s="10">
         <v>102.8</v>
@@ -43451,7 +43451,7 @@
         <v>104.7</v>
       </c>
       <c r="BZ108" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="CA108" t="n" s="10">
         <v>105.7</v>
@@ -43484,7 +43484,7 @@
         <v>104.6</v>
       </c>
       <c r="CK108" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="CL108" t="n" s="10">
         <v>103.3</v>
@@ -43493,7 +43493,7 @@
         <v>102.3</v>
       </c>
       <c r="CN108" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="CO108" t="n" s="10">
         <v>99.9</v>
@@ -43517,7 +43517,7 @@
         <v>90.5</v>
       </c>
       <c r="CV108" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="CW108" t="n" s="10">
         <v>88.1</v>
@@ -43538,7 +43538,7 @@
         <v>86.6</v>
       </c>
       <c r="DC108" t="n" s="10">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="DD108" t="n" s="10">
         <v>87.7</v>
@@ -43559,7 +43559,7 @@
         <v>90.2</v>
       </c>
       <c r="DJ108" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="DK108" t="n" s="10">
         <v>90.7</v>
@@ -43574,7 +43574,7 @@
         <v>91.3</v>
       </c>
       <c r="DO108" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="DP108" t="n" s="10">
         <v>91.9</v>
@@ -43583,10 +43583,10 @@
         <v>92.2</v>
       </c>
       <c r="DR108" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DS108" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="DT108" t="n" s="10">
         <v>93.2</v>
@@ -43699,10 +43699,10 @@
         <v>110.9</v>
       </c>
       <c r="AA109" t="n" s="10">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="AB109" t="n" s="10">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="AC109" t="n" s="10">
         <v>110.3</v>
@@ -43714,10 +43714,10 @@
         <v>109.4</v>
       </c>
       <c r="AF109" t="n" s="10">
-        <v>109.1</v>
+        <v>109.0</v>
       </c>
       <c r="AG109" t="n" s="10">
-        <v>109.1</v>
+        <v>109.0</v>
       </c>
       <c r="AH109" t="n" s="10">
         <v>109.2</v>
@@ -43729,7 +43729,7 @@
         <v>108.9</v>
       </c>
       <c r="AK109" t="n" s="10">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="AL109" t="n" s="10">
         <v>108.4</v>
@@ -43738,13 +43738,13 @@
         <v>108.2</v>
       </c>
       <c r="AN109" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="AO109" t="n" s="10">
         <v>107.8</v>
       </c>
       <c r="AP109" t="n" s="10">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="AQ109" t="n" s="10">
         <v>107.1</v>
@@ -43765,7 +43765,7 @@
         <v>107.3</v>
       </c>
       <c r="AW109" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AX109" t="n" s="10">
         <v>108.3</v>
@@ -43774,22 +43774,22 @@
         <v>108.9</v>
       </c>
       <c r="AZ109" t="n" s="10">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="BA109" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="BB109" t="n" s="10">
         <v>110.7</v>
       </c>
       <c r="BC109" t="n" s="10">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="BD109" t="n" s="10">
         <v>111.8</v>
       </c>
       <c r="BE109" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="BF109" t="n" s="10">
         <v>112.5</v>
@@ -43822,25 +43822,25 @@
         <v>115.1</v>
       </c>
       <c r="BP109" t="n" s="10">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="BQ109" t="n" s="10">
         <v>116.1</v>
       </c>
       <c r="BR109" t="n" s="10">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="BS109" t="n" s="10">
         <v>117.4</v>
       </c>
       <c r="BT109" t="n" s="10">
-        <v>117.9</v>
+        <v>118.0</v>
       </c>
       <c r="BU109" t="n" s="10">
         <v>118.5</v>
       </c>
       <c r="BV109" t="n" s="10">
-        <v>118.9</v>
+        <v>119.0</v>
       </c>
       <c r="BW109" t="n" s="10">
         <v>119.3</v>
@@ -43849,10 +43849,10 @@
         <v>119.7</v>
       </c>
       <c r="BY109" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="BZ109" t="n" s="10">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="CA109" t="n" s="10">
         <v>120.6</v>
@@ -43876,10 +43876,10 @@
         <v>120.2</v>
       </c>
       <c r="CH109" t="n" s="10">
-        <v>120.2</v>
+        <v>120.1</v>
       </c>
       <c r="CI109" t="n" s="10">
-        <v>120.2</v>
+        <v>120.1</v>
       </c>
       <c r="CJ109" t="n" s="10">
         <v>120.1</v>
@@ -43894,13 +43894,13 @@
         <v>118.6</v>
       </c>
       <c r="CN109" t="n" s="10">
-        <v>117.6</v>
+        <v>117.5</v>
       </c>
       <c r="CO109" t="n" s="10">
         <v>116.3</v>
       </c>
       <c r="CP109" t="n" s="10">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="CQ109" t="n" s="10">
         <v>112.8</v>
@@ -43918,13 +43918,13 @@
         <v>104.3</v>
       </c>
       <c r="CV109" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="CW109" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="CX109" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="CY109" t="n" s="10">
         <v>98.1</v>
@@ -43936,7 +43936,7 @@
         <v>96.6</v>
       </c>
       <c r="DB109" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="DC109" t="n" s="10">
         <v>96.5</v>
@@ -43951,10 +43951,10 @@
         <v>97.5</v>
       </c>
       <c r="DG109" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="DH109" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="DI109" t="n" s="10">
         <v>98.1</v>
@@ -43966,7 +43966,7 @@
         <v>98.0</v>
       </c>
       <c r="DL109" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DM109" t="n" s="10">
         <v>97.9</v>
@@ -43981,7 +43981,7 @@
         <v>98.2</v>
       </c>
       <c r="DQ109" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DR109" t="n" s="10">
         <v>98.9</v>
@@ -43990,16 +43990,16 @@
         <v>99.3</v>
       </c>
       <c r="DT109" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="DU109" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="DV109" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="DW109" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="DX109" t="n" s="10">
         <v>100.9</v>
@@ -44020,7 +44020,7 @@
         <v>100.1</v>
       </c>
       <c r="ED109" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="110">
@@ -44112,22 +44112,22 @@
         <v>74.3</v>
       </c>
       <c r="AE110" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="AF110" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="AG110" t="n" s="10">
         <v>74.3</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="AI110" t="n" s="10">
         <v>74.9</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AK110" t="n" s="10">
         <v>75.4</v>
@@ -44136,10 +44136,10 @@
         <v>75.6</v>
       </c>
       <c r="AM110" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="AN110" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="AO110" t="n" s="10">
         <v>76.4</v>
@@ -44166,16 +44166,16 @@
         <v>78.0</v>
       </c>
       <c r="AW110" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="AX110" t="n" s="10">
         <v>78.8</v>
       </c>
       <c r="AY110" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="AZ110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="BA110" t="n" s="10">
         <v>80.0</v>
@@ -44235,19 +44235,19 @@
         <v>87.9</v>
       </c>
       <c r="BT110" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="BU110" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="BV110" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="BW110" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="BX110" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="BY110" t="n" s="10">
         <v>92.5</v>
@@ -44256,7 +44256,7 @@
         <v>93.2</v>
       </c>
       <c r="CA110" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="CB110" t="n" s="10">
         <v>94.5</v>
@@ -44292,25 +44292,25 @@
         <v>91.1</v>
       </c>
       <c r="CM110" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="CN110" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="CO110" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="CP110" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="CQ110" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="CR110" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="CS110" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="CT110" t="n" s="10">
         <v>81.4</v>
@@ -44337,7 +44337,7 @@
         <v>78.7</v>
       </c>
       <c r="DB110" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="DC110" t="n" s="10">
         <v>79.9</v>
@@ -44349,7 +44349,7 @@
         <v>81.7</v>
       </c>
       <c r="DF110" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DG110" t="n" s="10">
         <v>83.1</v>
@@ -44364,22 +44364,22 @@
         <v>84.7</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="DN110" t="n" s="10">
         <v>86.3</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="DQ110" t="n" s="10">
         <v>87.5</v>
@@ -44388,7 +44388,7 @@
         <v>87.8</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DT110" t="n" s="10">
         <v>88.3</v>
@@ -44421,7 +44421,7 @@
         <v>87.5</v>
       </c>
       <c r="ED110" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="111">
@@ -44516,19 +44516,19 @@
         <v>74.4</v>
       </c>
       <c r="AF111" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="AG111" t="n" s="10">
         <v>73.8</v>
       </c>
       <c r="AH111" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="AI111" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AJ111" t="n" s="10">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="AK111" t="n" s="10">
         <v>75.1</v>
@@ -44546,7 +44546,7 @@
         <v>77.1</v>
       </c>
       <c r="AP111" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="AQ111" t="n" s="10">
         <v>77.9</v>
@@ -44555,25 +44555,25 @@
         <v>78.2</v>
       </c>
       <c r="AS111" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="AT111" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="AU111" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="AV111" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="AW111" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="AX111" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="AY111" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="AZ111" t="n" s="10">
         <v>79.8</v>
@@ -44582,7 +44582,7 @@
         <v>79.7</v>
       </c>
       <c r="BB111" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="BC111" t="n" s="10">
         <v>79.6</v>
@@ -44606,22 +44606,22 @@
         <v>79.7</v>
       </c>
       <c r="BJ111" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="BK111" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="BL111" t="n" s="10">
         <v>81.1</v>
       </c>
       <c r="BM111" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="BN111" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="BO111" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="BP111" t="n" s="10">
         <v>84.1</v>
@@ -44657,7 +44657,7 @@
         <v>90.8</v>
       </c>
       <c r="CA111" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="CB111" t="n" s="10">
         <v>91.5</v>
@@ -44666,13 +44666,13 @@
         <v>91.4</v>
       </c>
       <c r="CD111" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="CE111" t="n" s="10">
         <v>91.0</v>
       </c>
       <c r="CF111" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CG111" t="n" s="10">
         <v>90.0</v>
@@ -44702,10 +44702,10 @@
         <v>86.7</v>
       </c>
       <c r="CP111" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="CQ111" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="CR111" t="n" s="10">
         <v>85.6</v>
@@ -44744,10 +44744,10 @@
         <v>85.6</v>
       </c>
       <c r="DD111" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="DE111" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DF111" t="n" s="10">
         <v>88.6</v>
@@ -44756,10 +44756,10 @@
         <v>89.4</v>
       </c>
       <c r="DH111" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="DI111" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="DJ111" t="n" s="10">
         <v>91.6</v>
@@ -44768,28 +44768,28 @@
         <v>92.2</v>
       </c>
       <c r="DL111" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="DM111" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="DN111" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="DO111" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="DP111" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="DQ111" t="n" s="10">
         <v>93.8</v>
       </c>
       <c r="DR111" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="DS111" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="DT111" t="n" s="10">
         <v>93.8</v>
@@ -44798,7 +44798,7 @@
         <v>93.5</v>
       </c>
       <c r="DV111" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="DW111" t="n" s="10">
         <v>92.6</v>
@@ -44902,16 +44902,16 @@
         <v>36</v>
       </c>
       <c r="AA112" t="n" s="10">
-        <v>71.9</v>
+        <v>72.1</v>
       </c>
       <c r="AB112" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="AC112" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="AD112" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="AE112" t="n" s="10">
         <v>74.2</v>
@@ -44920,37 +44920,37 @@
         <v>74.6</v>
       </c>
       <c r="AG112" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AH112" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="AI112" t="n" s="10">
+        <v>75.7</v>
+      </c>
+      <c r="AJ112" t="n" s="10">
         <v>75.9</v>
       </c>
-      <c r="AJ112" t="n" s="10">
+      <c r="AK112" t="n" s="10">
         <v>76.0</v>
       </c>
-      <c r="AK112" t="n" s="10">
-        <v>76.1</v>
-      </c>
       <c r="AL112" t="n" s="10">
-        <v>76.2</v>
+        <v>76.0</v>
       </c>
       <c r="AM112" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AN112" t="n" s="10">
-        <v>76.1</v>
+        <v>75.9</v>
       </c>
       <c r="AO112" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="AP112" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="AQ112" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="AR112" t="n" s="10">
         <v>75.9</v>
@@ -44959,7 +44959,7 @@
         <v>75.9</v>
       </c>
       <c r="AT112" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AU112" t="n" s="10">
         <v>76.2</v>
@@ -44971,7 +44971,7 @@
         <v>77.2</v>
       </c>
       <c r="AX112" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="AY112" t="n" s="10">
         <v>78.6</v>
@@ -44980,7 +44980,7 @@
         <v>79.5</v>
       </c>
       <c r="BA112" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="BB112" t="n" s="10">
         <v>81.1</v>
@@ -45028,40 +45028,40 @@
         <v>88.3</v>
       </c>
       <c r="BQ112" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="BR112" t="n" s="10">
         <v>89.3</v>
       </c>
       <c r="BS112" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="BT112" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="BU112" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="BV112" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="BW112" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="BY112" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="BZ112" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="CA112" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CC112" t="n" s="10">
         <v>96.9</v>
@@ -45076,46 +45076,46 @@
         <v>97.6</v>
       </c>
       <c r="CG112" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="CH112" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="CI112" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CJ112" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="CL112" t="n" s="10">
         <v>93.7</v>
       </c>
       <c r="CM112" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="CN112" t="n" s="10">
         <v>90.3</v>
       </c>
       <c r="CO112" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="CP112" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="CQ112" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="CR112" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="CS112" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="CT112" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="CU112" t="n" s="10">
         <v>76.6</v>
@@ -45133,13 +45133,13 @@
         <v>73.4</v>
       </c>
       <c r="CZ112" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="DA112" t="n" s="10">
         <v>73.5</v>
       </c>
       <c r="DB112" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="DC112" t="n" s="10">
         <v>74.5</v>
@@ -45172,7 +45172,7 @@
         <v>78.6</v>
       </c>
       <c r="DM112" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="DN112" t="n" s="10">
         <v>79.4</v>
@@ -45190,7 +45190,7 @@
         <v>81.8</v>
       </c>
       <c r="DS112" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DT112" t="n" s="10">
         <v>82.9</v>
@@ -45211,7 +45211,7 @@
         <v>83.9</v>
       </c>
       <c r="DZ112" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="EA112" t="n" s="10">
         <v>83.9</v>
@@ -45220,7 +45220,7 @@
         <v>84.1</v>
       </c>
       <c r="EC112" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="ED112" t="n" s="10">
         <v>84.8</v>
@@ -53343,13 +53343,13 @@
         <v>98.1</v>
       </c>
       <c r="AA134" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="AB134" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="AC134" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AD134" t="n" s="10">
         <v>96.9</v>
@@ -53367,34 +53367,34 @@
         <v>97.6</v>
       </c>
       <c r="AI134" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="AJ134" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="AK134" t="n" s="10">
         <v>98.0</v>
       </c>
-      <c r="AJ134" t="n" s="10">
-        <v>98.2</v>
-      </c>
-      <c r="AK134" t="n" s="10">
-        <v>98.1</v>
-      </c>
       <c r="AL134" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="AM134" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="AN134" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="AO134" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="AP134" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="AQ134" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AR134" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="AS134" t="n" s="10">
         <v>94.7</v>
@@ -53406,7 +53406,7 @@
         <v>93.4</v>
       </c>
       <c r="AV134" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="AW134" t="n" s="10">
         <v>92.5</v>
@@ -53421,7 +53421,7 @@
         <v>92.0</v>
       </c>
       <c r="BA134" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="BB134" t="n" s="10">
         <v>92.0</v>
@@ -53436,7 +53436,7 @@
         <v>93.2</v>
       </c>
       <c r="BF134" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="BG134" t="n" s="10">
         <v>94.6</v>
@@ -53448,7 +53448,7 @@
         <v>96.2</v>
       </c>
       <c r="BJ134" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="BK134" t="n" s="10">
         <v>98.1</v>
@@ -53469,70 +53469,70 @@
         <v>102.0</v>
       </c>
       <c r="BQ134" t="n" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="BR134" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="BS134" t="n" s="10">
+        <v>103.0</v>
+      </c>
+      <c r="BT134" t="n" s="10">
+        <v>103.1</v>
+      </c>
+      <c r="BU134" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="BV134" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="BW134" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="BX134" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="BY134" t="n" s="10">
+        <v>103.5</v>
+      </c>
+      <c r="BZ134" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="CA134" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="CB134" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="CC134" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="CD134" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="CE134" t="n" s="10">
+        <v>103.5</v>
+      </c>
+      <c r="CF134" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="CG134" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="CH134" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="CI134" t="n" s="10">
+        <v>103.1</v>
+      </c>
+      <c r="CJ134" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="CK134" t="n" s="10">
         <v>102.4</v>
       </c>
-      <c r="BR134" t="n" s="10">
-        <v>102.7</v>
-      </c>
-      <c r="BS134" t="n" s="10">
-        <v>102.8</v>
-      </c>
-      <c r="BT134" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="BU134" t="n" s="10">
-        <v>103.1</v>
-      </c>
-      <c r="BV134" t="n" s="10">
-        <v>103.1</v>
-      </c>
-      <c r="BW134" t="n" s="10">
-        <v>103.2</v>
-      </c>
-      <c r="BX134" t="n" s="10">
-        <v>103.3</v>
-      </c>
-      <c r="BY134" t="n" s="10">
-        <v>103.3</v>
-      </c>
-      <c r="BZ134" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="CA134" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="CB134" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="CC134" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="CD134" t="n" s="10">
-        <v>103.4</v>
-      </c>
-      <c r="CE134" t="n" s="10">
-        <v>103.4</v>
-      </c>
-      <c r="CF134" t="n" s="10">
-        <v>103.3</v>
-      </c>
-      <c r="CG134" t="n" s="10">
-        <v>103.1</v>
-      </c>
-      <c r="CH134" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="CI134" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="CJ134" t="n" s="10">
-        <v>102.7</v>
-      </c>
-      <c r="CK134" t="n" s="10">
-        <v>102.3</v>
-      </c>
       <c r="CL134" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="CM134" t="n" s="10">
         <v>100.6</v>
@@ -53556,10 +53556,10 @@
         <v>89.4</v>
       </c>
       <c r="CT134" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="CU134" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="CV134" t="n" s="10">
         <v>83.9</v>
@@ -53598,7 +53598,7 @@
         <v>91.7</v>
       </c>
       <c r="DH134" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="DI134" t="n" s="10">
         <v>93.9</v>
@@ -53607,7 +53607,7 @@
         <v>94.7</v>
       </c>
       <c r="DK134" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DL134" t="n" s="10">
         <v>96.0</v>
@@ -53622,7 +53622,7 @@
         <v>97.4</v>
       </c>
       <c r="DP134" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DQ134" t="n" s="10">
         <v>98.5</v>
@@ -53634,10 +53634,10 @@
         <v>99.6</v>
       </c>
       <c r="DT134" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DU134" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DV134" t="n" s="10">
         <v>100.4</v>
@@ -53652,19 +53652,19 @@
         <v>100.4</v>
       </c>
       <c r="DZ134" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="EA134" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="EB134" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="EC134" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="ED134" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="135">
@@ -53744,10 +53744,10 @@
         <v>117.2</v>
       </c>
       <c r="AA135" t="n" s="10">
-        <v>116.8</v>
+        <v>116.9</v>
       </c>
       <c r="AB135" t="n" s="10">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="AC135" t="n" s="10">
         <v>116.2</v>
@@ -53768,34 +53768,34 @@
         <v>114.7</v>
       </c>
       <c r="AI135" t="n" s="10">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="AJ135" t="n" s="10">
         <v>114.5</v>
       </c>
       <c r="AK135" t="n" s="10">
-        <v>114.1</v>
+        <v>114.0</v>
       </c>
       <c r="AL135" t="n" s="10">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="AM135" t="n" s="10">
         <v>113.2</v>
       </c>
       <c r="AN135" t="n" s="10">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="AO135" t="n" s="10">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="AP135" t="n" s="10">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="AQ135" t="n" s="10">
         <v>110.3</v>
       </c>
       <c r="AR135" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="AS135" t="n" s="10">
         <v>108.2</v>
@@ -53804,7 +53804,7 @@
         <v>107.4</v>
       </c>
       <c r="AU135" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AV135" t="n" s="10">
         <v>106.1</v>
@@ -53837,28 +53837,28 @@
         <v>105.9</v>
       </c>
       <c r="BF135" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="BG135" t="n" s="10">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="BH135" t="n" s="10">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="BI135" t="n" s="10">
         <v>109.6</v>
       </c>
       <c r="BJ135" t="n" s="10">
-        <v>111.0</v>
+        <v>110.9</v>
       </c>
       <c r="BK135" t="n" s="10">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="BL135" t="n" s="10">
         <v>113.9</v>
       </c>
       <c r="BM135" t="n" s="10">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="BN135" t="n" s="10">
         <v>116.5</v>
@@ -53873,46 +53873,46 @@
         <v>119.0</v>
       </c>
       <c r="BR135" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="BS135" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BT135" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BU135" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BV135" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="BW135" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BS135" t="n" s="10">
-        <v>119.8</v>
-      </c>
-      <c r="BT135" t="n" s="10">
-        <v>119.9</v>
-      </c>
-      <c r="BU135" t="n" s="10">
-        <v>119.9</v>
-      </c>
-      <c r="BV135" t="n" s="10">
-        <v>119.6</v>
-      </c>
-      <c r="BW135" t="n" s="10">
-        <v>119.3</v>
-      </c>
       <c r="BX135" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="BY135" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="BY135" t="n" s="10">
-        <v>118.9</v>
-      </c>
       <c r="BZ135" t="n" s="10">
-        <v>118.9</v>
+        <v>119.0</v>
       </c>
       <c r="CA135" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="CB135" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="CC135" t="n" s="10">
         <v>118.7</v>
-      </c>
-      <c r="CB135" t="n" s="10">
-        <v>118.6</v>
-      </c>
-      <c r="CC135" t="n" s="10">
-        <v>118.6</v>
       </c>
       <c r="CD135" t="n" s="10">
         <v>118.5</v>
       </c>
       <c r="CE135" t="n" s="10">
-        <v>118.3</v>
+        <v>118.4</v>
       </c>
       <c r="CF135" t="n" s="10">
         <v>118.4</v>
@@ -53921,10 +53921,10 @@
         <v>118.5</v>
       </c>
       <c r="CH135" t="n" s="10">
-        <v>118.8</v>
+        <v>118.9</v>
       </c>
       <c r="CI135" t="n" s="10">
-        <v>119.1</v>
+        <v>119.2</v>
       </c>
       <c r="CJ135" t="n" s="10">
         <v>119.3</v>
@@ -53957,7 +53957,7 @@
         <v>104.4</v>
       </c>
       <c r="CT135" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="CU135" t="n" s="10">
         <v>99.6</v>
@@ -53978,7 +53978,7 @@
         <v>94.6</v>
       </c>
       <c r="DA135" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="DB135" t="n" s="10">
         <v>95.2</v>
@@ -54056,16 +54056,16 @@
         <v>112.1</v>
       </c>
       <c r="EA135" t="n" s="10">
-        <v>112.0</v>
+        <v>111.9</v>
       </c>
       <c r="EB135" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="EC135" t="n" s="10">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="ED135" t="n" s="10">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="136">
@@ -54145,22 +54145,22 @@
         <v>84.0</v>
       </c>
       <c r="AA136" t="n" s="10">
-        <v>80.9</v>
+        <v>81.1</v>
       </c>
       <c r="AB136" t="n" s="10">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="AC136" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="AD136" t="n" s="10">
         <v>81.8</v>
       </c>
-      <c r="AD136" t="n" s="10">
-        <v>81.6</v>
-      </c>
       <c r="AE136" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="AF136" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="AG136" t="n" s="10">
         <v>82.6</v>
@@ -54169,19 +54169,19 @@
         <v>83.7</v>
       </c>
       <c r="AI136" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="AJ136" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="AK136" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="AL136" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="AM136" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="AN136" t="n" s="10">
         <v>85.8</v>
@@ -54193,10 +54193,10 @@
         <v>85.5</v>
       </c>
       <c r="AQ136" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="AR136" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="AS136" t="n" s="10">
         <v>83.9</v>
@@ -54208,37 +54208,37 @@
         <v>82.8</v>
       </c>
       <c r="AV136" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="AW136" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="AX136" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AY136" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="AZ136" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="BA136" t="n" s="10">
         <v>81.7</v>
       </c>
       <c r="BB136" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="BC136" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="BD136" t="n" s="10">
         <v>82.7</v>
       </c>
       <c r="BE136" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="BF136" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="BG136" t="n" s="10">
         <v>84.5</v>
@@ -54265,7 +54265,7 @@
         <v>88.5</v>
       </c>
       <c r="BO136" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="BP136" t="n" s="10">
         <v>89.1</v>
@@ -54283,52 +54283,52 @@
         <v>89.7</v>
       </c>
       <c r="BU136" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="BV136" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="BW136" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="BX136" t="n" s="10">
         <v>90.5</v>
       </c>
       <c r="BY136" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="BZ136" t="n" s="10">
+        <v>90.8</v>
+      </c>
+      <c r="CA136" t="n" s="10">
+        <v>91.0</v>
+      </c>
+      <c r="CB136" t="n" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="CC136" t="n" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="CD136" t="n" s="10">
+        <v>91.0</v>
+      </c>
+      <c r="CE136" t="n" s="10">
         <v>90.9</v>
-      </c>
-      <c r="CA136" t="n" s="10">
-        <v>91.1</v>
-      </c>
-      <c r="CB136" t="n" s="10">
-        <v>91.2</v>
-      </c>
-      <c r="CC136" t="n" s="10">
-        <v>91.2</v>
-      </c>
-      <c r="CD136" t="n" s="10">
-        <v>91.1</v>
-      </c>
-      <c r="CE136" t="n" s="10">
-        <v>91.0</v>
       </c>
       <c r="CF136" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="CG136" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="CH136" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="CI136" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="CJ136" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="CK136" t="n" s="10">
         <v>88.8</v>
@@ -54340,40 +54340,40 @@
         <v>86.9</v>
       </c>
       <c r="CN136" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="CO136" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="CP136" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="CQ136" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="CR136" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="CS136" t="n" s="10">
-        <v>77.2</v>
+        <v>77.4</v>
       </c>
       <c r="CT136" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="CU136" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="CV136" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="CW136" t="n" s="10">
-        <v>71.8</v>
+        <v>71.9</v>
       </c>
       <c r="CX136" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="CY136" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="CZ136" t="n" s="10">
         <v>71.9</v>
@@ -54406,10 +54406,10 @@
         <v>89.2</v>
       </c>
       <c r="DJ136" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="DK136" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="DL136" t="n" s="10">
         <v>92.7</v>
@@ -54424,28 +54424,28 @@
         <v>94.0</v>
       </c>
       <c r="DP136" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="DQ136" t="n" s="10">
         <v>94.3</v>
       </c>
-      <c r="DQ136" t="n" s="10">
-        <v>94.4</v>
-      </c>
       <c r="DR136" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DS136" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DT136" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="DU136" t="n" s="10">
         <v>93.6</v>
       </c>
       <c r="DV136" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="DW136" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DX136" t="n" s="10">
         <v>91.9</v>
@@ -54546,70 +54546,70 @@
         <v>36</v>
       </c>
       <c r="AA137" t="n" s="10">
-        <v>95.4</v>
+        <v>95.1</v>
       </c>
       <c r="AB137" t="n" s="10">
-        <v>95.1</v>
+        <v>94.8</v>
       </c>
       <c r="AC137" t="n" s="10">
-        <v>94.3</v>
+        <v>94.0</v>
       </c>
       <c r="AD137" t="n" s="10">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="AE137" t="n" s="10">
-        <v>91.6</v>
+        <v>91.4</v>
       </c>
       <c r="AF137" t="n" s="10">
-        <v>90.9</v>
+        <v>90.7</v>
       </c>
       <c r="AG137" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="AH137" t="n" s="10">
         <v>93.0</v>
       </c>
       <c r="AI137" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="AJ137" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AK137" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="AL137" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="AM137" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="AN137" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="AO137" t="n" s="10">
+        <v>100.3</v>
+      </c>
+      <c r="AP137" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="AQ137" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="AR137" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="AS137" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="AT137" t="n" s="10">
+        <v>98.8</v>
+      </c>
+      <c r="AU137" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="AV137" t="n" s="10">
         <v>97.0</v>
-      </c>
-      <c r="AM137" t="n" s="10">
-        <v>98.1</v>
-      </c>
-      <c r="AN137" t="n" s="10">
-        <v>99.4</v>
-      </c>
-      <c r="AO137" t="n" s="10">
-        <v>100.1</v>
-      </c>
-      <c r="AP137" t="n" s="10">
-        <v>100.4</v>
-      </c>
-      <c r="AQ137" t="n" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="AR137" t="n" s="10">
-        <v>99.9</v>
-      </c>
-      <c r="AS137" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="AT137" t="n" s="10">
-        <v>98.6</v>
-      </c>
-      <c r="AU137" t="n" s="10">
-        <v>97.8</v>
-      </c>
-      <c r="AV137" t="n" s="10">
-        <v>96.9</v>
       </c>
       <c r="AW137" t="n" s="10">
         <v>95.9</v>
@@ -54621,121 +54621,121 @@
         <v>93.8</v>
       </c>
       <c r="AZ137" t="n" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="BA137" t="n" s="10">
+        <v>91.9</v>
+      </c>
+      <c r="BB137" t="n" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="BC137" t="n" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="BD137" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="BE137" t="n" s="10">
         <v>92.8</v>
       </c>
-      <c r="BA137" t="n" s="10">
-        <v>92.0</v>
-      </c>
-      <c r="BB137" t="n" s="10">
-        <v>91.6</v>
-      </c>
-      <c r="BC137" t="n" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="BD137" t="n" s="10">
-        <v>92.1</v>
-      </c>
-      <c r="BE137" t="n" s="10">
-        <v>93.0</v>
-      </c>
       <c r="BF137" t="n" s="10">
-        <v>94.1</v>
+        <v>93.9</v>
       </c>
       <c r="BG137" t="n" s="10">
-        <v>95.3</v>
+        <v>95.1</v>
       </c>
       <c r="BH137" t="n" s="10">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
       <c r="BI137" t="n" s="10">
-        <v>98.1</v>
+        <v>97.8</v>
       </c>
       <c r="BJ137" t="n" s="10">
-        <v>99.4</v>
+        <v>99.1</v>
       </c>
       <c r="BK137" t="n" s="10">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="BL137" t="n" s="10">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="BM137" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="BN137" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="BO137" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="BP137" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="BQ137" t="n" s="10">
+        <v>104.1</v>
+      </c>
+      <c r="BR137" t="n" s="10">
         <v>104.2</v>
       </c>
-      <c r="BQ137" t="n" s="10">
+      <c r="BS137" t="n" s="10">
+        <v>104.2</v>
+      </c>
+      <c r="BT137" t="n" s="10">
         <v>104.3</v>
       </c>
-      <c r="BR137" t="n" s="10">
-        <v>104.3</v>
-      </c>
-      <c r="BS137" t="n" s="10">
-        <v>104.3</v>
-      </c>
-      <c r="BT137" t="n" s="10">
+      <c r="BU137" t="n" s="10">
         <v>104.4</v>
       </c>
-      <c r="BU137" t="n" s="10">
-        <v>104.5</v>
-      </c>
       <c r="BV137" t="n" s="10">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="BW137" t="n" s="10">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="BX137" t="n" s="10">
-        <v>106.0</v>
+        <v>105.8</v>
       </c>
       <c r="BY137" t="n" s="10">
         <v>106.5</v>
       </c>
       <c r="BZ137" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="CA137" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="CB137" t="n" s="10">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="CC137" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="CD137" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="CD137" t="n" s="10">
-        <v>107.7</v>
-      </c>
       <c r="CE137" t="n" s="10">
-        <v>107.3</v>
+        <v>107.6</v>
       </c>
       <c r="CF137" t="n" s="10">
-        <v>106.7</v>
+        <v>107.1</v>
       </c>
       <c r="CG137" t="n" s="10">
-        <v>106.1</v>
+        <v>106.4</v>
       </c>
       <c r="CH137" t="n" s="10">
-        <v>105.2</v>
+        <v>105.6</v>
       </c>
       <c r="CI137" t="n" s="10">
-        <v>104.1</v>
+        <v>104.4</v>
       </c>
       <c r="CJ137" t="n" s="10">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="CK137" t="n" s="10">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="CL137" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="CM137" t="n" s="10">
         <v>97.5</v>
@@ -54744,76 +54744,76 @@
         <v>94.9</v>
       </c>
       <c r="CO137" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="CP137" t="n" s="10">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="CQ137" t="n" s="10">
-        <v>87.0</v>
+        <v>86.7</v>
       </c>
       <c r="CR137" t="n" s="10">
-        <v>84.0</v>
+        <v>83.7</v>
       </c>
       <c r="CS137" t="n" s="10">
-        <v>81.2</v>
+        <v>80.9</v>
       </c>
       <c r="CT137" t="n" s="10">
-        <v>78.7</v>
+        <v>78.4</v>
       </c>
       <c r="CU137" t="n" s="10">
-        <v>76.4</v>
+        <v>76.1</v>
       </c>
       <c r="CV137" t="n" s="10">
-        <v>74.7</v>
+        <v>74.4</v>
       </c>
       <c r="CW137" t="n" s="10">
-        <v>73.6</v>
+        <v>73.4</v>
       </c>
       <c r="CX137" t="n" s="10">
-        <v>73.2</v>
+        <v>73.1</v>
       </c>
       <c r="CY137" t="n" s="10">
         <v>73.8</v>
       </c>
       <c r="CZ137" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="DA137" t="n" s="10">
         <v>77.8</v>
       </c>
       <c r="DB137" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="DC137" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="DD137" t="n" s="10">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="DE137" t="n" s="10">
-        <v>94.8</v>
+        <v>95.0</v>
       </c>
       <c r="DF137" t="n" s="10">
-        <v>99.2</v>
+        <v>99.4</v>
       </c>
       <c r="DG137" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="DH137" t="n" s="10">
-        <v>106.6</v>
+        <v>106.8</v>
       </c>
       <c r="DI137" t="n" s="10">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="DJ137" t="n" s="10">
-        <v>112.0</v>
+        <v>112.2</v>
       </c>
       <c r="DK137" t="n" s="10">
-        <v>114.0</v>
+        <v>114.1</v>
       </c>
       <c r="DL137" t="n" s="10">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="DM137" t="n" s="10">
         <v>115.9</v>
@@ -54825,37 +54825,37 @@
         <v>115.1</v>
       </c>
       <c r="DP137" t="n" s="10">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="DQ137" t="n" s="10">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="DR137" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="DS137" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="DT137" t="n" s="10">
-        <v>109.0</v>
+        <v>108.8</v>
       </c>
       <c r="DU137" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="DV137" t="n" s="10">
-        <v>105.6</v>
+        <v>105.3</v>
       </c>
       <c r="DW137" t="n" s="10">
-        <v>104.0</v>
+        <v>103.8</v>
       </c>
       <c r="DX137" t="n" s="10">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="DY137" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="DZ137" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="EA137" t="n" s="10">
         <v>98.8</v>
@@ -54867,7 +54867,7 @@
         <v>96.6</v>
       </c>
       <c r="ED137" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="138">
@@ -54950,10 +54950,10 @@
         <v>70.7</v>
       </c>
       <c r="AB138" t="n" s="10">
-        <v>71.9</v>
+        <v>71.7</v>
       </c>
       <c r="AC138" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="AD138" t="n" s="10">
         <v>73.4</v>
@@ -54968,52 +54968,52 @@
         <v>75.4</v>
       </c>
       <c r="AH138" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="AI138" t="n" s="10">
         <v>76.1</v>
       </c>
       <c r="AJ138" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AK138" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="AL138" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="AM138" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="AN138" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AO138" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="AP138" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="AQ138" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="AR138" t="n" s="10">
-        <v>72.3</v>
+        <v>72.1</v>
       </c>
       <c r="AS138" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="AT138" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="AU138" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="AV138" t="n" s="10">
         <v>71.1</v>
       </c>
       <c r="AW138" t="n" s="10">
-        <v>71.4</v>
+        <v>71.3</v>
       </c>
       <c r="AX138" t="n" s="10">
         <v>71.9</v>
@@ -55037,22 +55037,22 @@
         <v>75.6</v>
       </c>
       <c r="BE138" t="n" s="10">
-        <v>75.8</v>
+        <v>75.9</v>
       </c>
       <c r="BF138" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="BG138" t="n" s="10">
+        <v>76.3</v>
+      </c>
+      <c r="BH138" t="n" s="10">
         <v>76.2</v>
       </c>
-      <c r="BH138" t="n" s="10">
-        <v>76.1</v>
-      </c>
       <c r="BI138" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="BJ138" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="BK138" t="n" s="10">
         <v>76.2</v>
@@ -55061,49 +55061,49 @@
         <v>76.4</v>
       </c>
       <c r="BM138" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="BN138" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="BO138" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="BP138" t="n" s="10">
-        <v>77.2</v>
+        <v>77.4</v>
       </c>
       <c r="BQ138" t="n" s="10">
-        <v>77.4</v>
+        <v>77.6</v>
       </c>
       <c r="BR138" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="BS138" t="n" s="10">
-        <v>77.7</v>
+        <v>77.9</v>
       </c>
       <c r="BT138" t="n" s="10">
+        <v>78.1</v>
+      </c>
+      <c r="BU138" t="n" s="10">
+        <v>78.4</v>
+      </c>
+      <c r="BV138" t="n" s="10">
+        <v>78.4</v>
+      </c>
+      <c r="BW138" t="n" s="10">
+        <v>78.5</v>
+      </c>
+      <c r="BX138" t="n" s="10">
+        <v>78.5</v>
+      </c>
+      <c r="BY138" t="n" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="BZ138" t="n" s="10">
+        <v>78.0</v>
+      </c>
+      <c r="CA138" t="n" s="10">
         <v>77.9</v>
-      </c>
-      <c r="BU138" t="n" s="10">
-        <v>78.1</v>
-      </c>
-      <c r="BV138" t="n" s="10">
-        <v>78.2</v>
-      </c>
-      <c r="BW138" t="n" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="BX138" t="n" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="BY138" t="n" s="10">
-        <v>78.1</v>
-      </c>
-      <c r="BZ138" t="n" s="10">
-        <v>77.9</v>
-      </c>
-      <c r="CA138" t="n" s="10">
-        <v>77.7</v>
       </c>
       <c r="CB138" t="n" s="10">
         <v>77.6</v>
@@ -55115,16 +55115,16 @@
         <v>77.4</v>
       </c>
       <c r="CE138" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="CF138" t="n" s="10">
         <v>77.5</v>
       </c>
       <c r="CG138" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="CH138" t="n" s="10">
         <v>77.5</v>
-      </c>
-      <c r="CH138" t="n" s="10">
-        <v>77.6</v>
       </c>
       <c r="CI138" t="n" s="10">
         <v>77.8</v>
@@ -55151,70 +55151,70 @@
         <v>76.8</v>
       </c>
       <c r="CQ138" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="CR138" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="CS138" t="n" s="10">
         <v>74.3</v>
       </c>
       <c r="CT138" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="CU138" t="n" s="10">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="CV138" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="CW138" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="CX138" t="n" s="10">
-        <v>70.1</v>
+        <v>70.0</v>
       </c>
       <c r="CY138" t="n" s="10">
-        <v>69.6</v>
+        <v>69.5</v>
       </c>
       <c r="CZ138" t="n" s="10">
         <v>69.4</v>
       </c>
       <c r="DA138" t="n" s="10">
-        <v>69.5</v>
+        <v>69.4</v>
       </c>
       <c r="DB138" t="n" s="10">
         <v>69.8</v>
       </c>
       <c r="DC138" t="n" s="10">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="DD138" t="n" s="10">
         <v>70.8</v>
       </c>
       <c r="DE138" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="DF138" t="n" s="10">
-        <v>72.1</v>
+        <v>72.0</v>
       </c>
       <c r="DG138" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="DH138" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="DI138" t="n" s="10">
         <v>73.5</v>
       </c>
       <c r="DJ138" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="DK138" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="DL138" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="DM138" t="n" s="10">
         <v>75.8</v>
@@ -55223,16 +55223,16 @@
         <v>76.6</v>
       </c>
       <c r="DO138" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="DP138" t="n" s="10">
         <v>78.8</v>
       </c>
       <c r="DQ138" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="DR138" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DS138" t="n" s="10">
         <v>82.1</v>
@@ -55244,16 +55244,16 @@
         <v>83.4</v>
       </c>
       <c r="DV138" t="n" s="10">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="DW138" t="n" s="10">
         <v>83.8</v>
       </c>
       <c r="DX138" t="n" s="10">
+        <v>83.9</v>
+      </c>
+      <c r="DY138" t="n" s="10">
         <v>83.8</v>
-      </c>
-      <c r="DY138" t="n" s="10">
-        <v>83.7</v>
       </c>
       <c r="DZ138" t="n" s="10">
         <v>83.5</v>
@@ -55268,7 +55268,7 @@
         <v>83.4</v>
       </c>
       <c r="ED138" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="139" ht="33.75" customHeight="true">
@@ -63388,49 +63388,49 @@
         <v>87.6</v>
       </c>
       <c r="AA160" t="n" s="10">
+        <v>88.1</v>
+      </c>
+      <c r="AB160" t="n" s="10">
+        <v>88.1</v>
+      </c>
+      <c r="AC160" t="n" s="10">
         <v>87.9</v>
-      </c>
-      <c r="AB160" t="n" s="10">
-        <v>87.9</v>
-      </c>
-      <c r="AC160" t="n" s="10">
-        <v>87.8</v>
       </c>
       <c r="AD160" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="AE160" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="AF160" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="AG160" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="AH160" t="n" s="10">
         <v>87.2</v>
       </c>
-      <c r="AG160" t="n" s="10">
+      <c r="AI160" t="n" s="10">
         <v>87.2</v>
       </c>
-      <c r="AH160" t="n" s="10">
+      <c r="AJ160" t="n" s="10">
+        <v>87.2</v>
+      </c>
+      <c r="AK160" t="n" s="10">
+        <v>87.2</v>
+      </c>
+      <c r="AL160" t="n" s="10">
         <v>87.3</v>
       </c>
-      <c r="AI160" t="n" s="10">
-        <v>87.4</v>
-      </c>
-      <c r="AJ160" t="n" s="10">
-        <v>87.4</v>
-      </c>
-      <c r="AK160" t="n" s="10">
-        <v>87.4</v>
-      </c>
-      <c r="AL160" t="n" s="10">
-        <v>87.4</v>
-      </c>
       <c r="AM160" t="n" s="10">
+        <v>87.3</v>
+      </c>
+      <c r="AN160" t="n" s="10">
         <v>87.5</v>
       </c>
-      <c r="AN160" t="n" s="10">
+      <c r="AO160" t="n" s="10">
         <v>87.6</v>
-      </c>
-      <c r="AO160" t="n" s="10">
-        <v>87.7</v>
       </c>
       <c r="AP160" t="n" s="10">
         <v>87.8</v>
@@ -63445,55 +63445,55 @@
         <v>88.5</v>
       </c>
       <c r="AT160" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="AU160" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="AV160" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="AW160" t="n" s="10">
-        <v>90.6</v>
+        <v>90.8</v>
       </c>
       <c r="AX160" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="AY160" t="n" s="10">
-        <v>92.1</v>
+        <v>92.3</v>
       </c>
       <c r="AZ160" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="BA160" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="BB160" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="BC160" t="n" s="10">
         <v>94.7</v>
       </c>
       <c r="BD160" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="BE160" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="BF160" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="BG160" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="BH160" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="BI160" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="BJ160" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="BK160" t="n" s="10">
         <v>95.9</v>
@@ -63502,7 +63502,7 @@
         <v>96.1</v>
       </c>
       <c r="BM160" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="BN160" t="n" s="10">
         <v>96.9</v>
@@ -63526,91 +63526,91 @@
         <v>101.0</v>
       </c>
       <c r="BU160" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="BV160" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="BW160" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="BX160" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="BY160" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="BZ160" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="CA160" t="n" s="10">
         <v>106.0</v>
       </c>
       <c r="CB160" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="CC160" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="CD160" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="CE160" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="CF160" t="n" s="10">
         <v>106.3</v>
       </c>
-      <c r="CC160" t="n" s="10">
-        <v>106.4</v>
-      </c>
-      <c r="CD160" t="n" s="10">
-        <v>106.4</v>
-      </c>
-      <c r="CE160" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="CF160" t="n" s="10">
-        <v>105.9</v>
-      </c>
       <c r="CG160" t="n" s="10">
-        <v>105.6</v>
+        <v>106.0</v>
       </c>
       <c r="CH160" t="n" s="10">
-        <v>105.2</v>
+        <v>105.7</v>
       </c>
       <c r="CI160" t="n" s="10">
-        <v>104.8</v>
+        <v>105.4</v>
       </c>
       <c r="CJ160" t="n" s="10">
+        <v>104.9</v>
+      </c>
+      <c r="CK160" t="n" s="10">
         <v>104.4</v>
       </c>
-      <c r="CK160" t="n" s="10">
-        <v>103.9</v>
-      </c>
       <c r="CL160" t="n" s="10">
-        <v>103.3</v>
+        <v>103.7</v>
       </c>
       <c r="CM160" t="n" s="10">
-        <v>102.5</v>
+        <v>102.9</v>
       </c>
       <c r="CN160" t="n" s="10">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="CO160" t="n" s="10">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="CP160" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="CQ160" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="CR160" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="CS160" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="CT160" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="CU160" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="CV160" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="CW160" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="CX160" t="n" s="10">
         <v>89.2</v>
@@ -63619,76 +63619,76 @@
         <v>88.5</v>
       </c>
       <c r="CZ160" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="DA160" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="DB160" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DC160" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DD160" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="DE160" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="DF160" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="DG160" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="DH160" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="DI160" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="DJ160" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="DK160" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="DL160" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="DM160" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="DN160" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="DO160" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="DP160" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="DQ160" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="DR160" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="DS160" t="n" s="10">
-        <v>90.6</v>
+        <v>90.8</v>
       </c>
       <c r="DT160" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="DU160" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="DV160" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="DW160" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="DX160" t="n" s="10">
         <v>91.2</v>
@@ -63700,7 +63700,7 @@
         <v>91.1</v>
       </c>
       <c r="EA160" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="EB160" t="n" s="10">
         <v>91.0</v>
@@ -63709,7 +63709,7 @@
         <v>91.0</v>
       </c>
       <c r="ED160" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="161">
@@ -63804,7 +63804,7 @@
         <v>107.6</v>
       </c>
       <c r="AF161" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AG161" t="n" s="10">
         <v>107.2</v>
@@ -63846,22 +63846,22 @@
         <v>106.2</v>
       </c>
       <c r="AT161" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AU161" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="AV161" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AW161" t="n" s="10">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="AX161" t="n" s="10">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="AY161" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="AZ161" t="n" s="10">
         <v>111.1</v>
@@ -63900,7 +63900,7 @@
         <v>113.6</v>
       </c>
       <c r="BL161" t="n" s="10">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="BM161" t="n" s="10">
         <v>113.5</v>
@@ -63954,19 +63954,19 @@
         <v>121.6</v>
       </c>
       <c r="CD161" t="n" s="10">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="CE161" t="n" s="10">
         <v>121.3</v>
       </c>
       <c r="CF161" t="n" s="10">
-        <v>121.0</v>
+        <v>121.1</v>
       </c>
       <c r="CG161" t="n" s="10">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="CH161" t="n" s="10">
-        <v>120.5</v>
+        <v>120.6</v>
       </c>
       <c r="CI161" t="n" s="10">
         <v>120.4</v>
@@ -63975,52 +63975,52 @@
         <v>120.2</v>
       </c>
       <c r="CK161" t="n" s="10">
-        <v>119.9</v>
+        <v>119.8</v>
       </c>
       <c r="CL161" t="n" s="10">
-        <v>119.4</v>
+        <v>119.2</v>
       </c>
       <c r="CM161" t="n" s="10">
-        <v>118.8</v>
+        <v>118.6</v>
       </c>
       <c r="CN161" t="n" s="10">
-        <v>117.9</v>
+        <v>117.6</v>
       </c>
       <c r="CO161" t="n" s="10">
-        <v>116.8</v>
+        <v>116.4</v>
       </c>
       <c r="CP161" t="n" s="10">
-        <v>115.4</v>
+        <v>115.0</v>
       </c>
       <c r="CQ161" t="n" s="10">
-        <v>113.8</v>
+        <v>113.3</v>
       </c>
       <c r="CR161" t="n" s="10">
-        <v>112.0</v>
+        <v>111.4</v>
       </c>
       <c r="CS161" t="n" s="10">
-        <v>110.0</v>
+        <v>109.5</v>
       </c>
       <c r="CT161" t="n" s="10">
-        <v>107.9</v>
+        <v>107.4</v>
       </c>
       <c r="CU161" t="n" s="10">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="CV161" t="n" s="10">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="CW161" t="n" s="10">
-        <v>102.0</v>
+        <v>101.7</v>
       </c>
       <c r="CX161" t="n" s="10">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="CY161" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="CZ161" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DA161" t="n" s="10">
         <v>97.2</v>
@@ -64029,13 +64029,13 @@
         <v>96.8</v>
       </c>
       <c r="DC161" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="DD161" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="DE161" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DF161" t="n" s="10">
         <v>97.2</v>
@@ -64050,7 +64050,7 @@
         <v>97.5</v>
       </c>
       <c r="DJ161" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="DK161" t="n" s="10">
         <v>97.3</v>
@@ -64065,7 +64065,7 @@
         <v>96.8</v>
       </c>
       <c r="DO161" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="DP161" t="n" s="10">
         <v>96.6</v>
@@ -64080,7 +64080,7 @@
         <v>96.9</v>
       </c>
       <c r="DT161" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="DU161" t="n" s="10">
         <v>97.2</v>
@@ -64214,7 +64214,7 @@
         <v>71.7</v>
       </c>
       <c r="AI162" t="n" s="10">
-        <v>71.8</v>
+        <v>71.9</v>
       </c>
       <c r="AJ162" t="n" s="10">
         <v>72.0</v>
@@ -64223,13 +64223,13 @@
         <v>72.2</v>
       </c>
       <c r="AL162" t="n" s="10">
-        <v>72.4</v>
+        <v>72.5</v>
       </c>
       <c r="AM162" t="n" s="10">
         <v>72.7</v>
       </c>
       <c r="AN162" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="AO162" t="n" s="10">
         <v>73.4</v>
@@ -64238,10 +64238,10 @@
         <v>73.8</v>
       </c>
       <c r="AQ162" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AR162" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AS162" t="n" s="10">
         <v>74.9</v>
@@ -64265,7 +64265,7 @@
         <v>78.4</v>
       </c>
       <c r="AZ162" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="BA162" t="n" s="10">
         <v>79.4</v>
@@ -64292,22 +64292,22 @@
         <v>81.6</v>
       </c>
       <c r="BI162" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="BJ162" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="BK162" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="BL162" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="BM162" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BN162" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="BO162" t="n" s="10">
         <v>84.6</v>
@@ -64316,7 +64316,7 @@
         <v>85.3</v>
       </c>
       <c r="BQ162" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="BR162" t="n" s="10">
         <v>86.8</v>
@@ -64325,7 +64325,7 @@
         <v>87.7</v>
       </c>
       <c r="BT162" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="BU162" t="n" s="10">
         <v>89.4</v>
@@ -64361,13 +64361,13 @@
         <v>95.5</v>
       </c>
       <c r="CF162" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="CG162" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="CH162" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="CI162" t="n" s="10">
         <v>94.1</v>
@@ -64379,7 +64379,7 @@
         <v>92.7</v>
       </c>
       <c r="CL162" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="CM162" t="n" s="10">
         <v>90.9</v>
@@ -64409,7 +64409,7 @@
         <v>82.7</v>
       </c>
       <c r="CV162" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="CW162" t="n" s="10">
         <v>81.6</v>
@@ -64424,19 +64424,19 @@
         <v>80.8</v>
       </c>
       <c r="DA162" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="DB162" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="DC162" t="n" s="10">
         <v>81.1</v>
       </c>
       <c r="DD162" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DE162" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="DF162" t="n" s="10">
         <v>82.0</v>
@@ -64499,7 +64499,7 @@
         <v>86.7</v>
       </c>
       <c r="DZ162" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="EA162" t="n" s="10">
         <v>86.7</v>
@@ -64606,10 +64606,10 @@
         <v>69.5</v>
       </c>
       <c r="AF163" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="AG163" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="AH163" t="n" s="10">
         <v>68.8</v>
@@ -64624,43 +64624,43 @@
         <v>69.1</v>
       </c>
       <c r="AL163" t="n" s="10">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="AM163" t="n" s="10">
         <v>69.7</v>
       </c>
       <c r="AN163" t="n" s="10">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="AO163" t="n" s="10">
         <v>70.6</v>
       </c>
       <c r="AP163" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="AQ163" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="AR163" t="n" s="10">
         <v>72.0</v>
       </c>
       <c r="AS163" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="AT163" t="n" s="10">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="AU163" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="AV163" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="AW163" t="n" s="10">
         <v>74.9</v>
       </c>
       <c r="AX163" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="AY163" t="n" s="10">
         <v>76.0</v>
@@ -64669,22 +64669,22 @@
         <v>76.3</v>
       </c>
       <c r="BA163" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="BB163" t="n" s="10">
+        <v>76.6</v>
+      </c>
+      <c r="BC163" t="n" s="10">
         <v>76.5</v>
       </c>
-      <c r="BC163" t="n" s="10">
-        <v>76.4</v>
-      </c>
       <c r="BD163" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="BE163" t="n" s="10">
         <v>75.8</v>
       </c>
       <c r="BF163" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="BG163" t="n" s="10">
         <v>75.1</v>
@@ -64723,61 +64723,61 @@
         <v>80.5</v>
       </c>
       <c r="BS163" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="BT163" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="BU163" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="BV163" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="BW163" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="BX163" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="BY163" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BZ163" t="n" s="10">
         <v>86.3</v>
       </c>
       <c r="CA163" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="CB163" t="n" s="10">
+        <v>86.8</v>
+      </c>
+      <c r="CC163" t="n" s="10">
         <v>86.7</v>
       </c>
-      <c r="CB163" t="n" s="10">
-        <v>86.9</v>
-      </c>
-      <c r="CC163" t="n" s="10">
-        <v>86.8</v>
-      </c>
       <c r="CD163" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="CE163" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="CF163" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="CG163" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="CH163" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="CI163" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CJ163" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="CK163" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="CL163" t="n" s="10">
         <v>84.7</v>
@@ -64786,7 +64786,7 @@
         <v>84.9</v>
       </c>
       <c r="CN163" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="CO163" t="n" s="10">
         <v>85.5</v>
@@ -64798,7 +64798,7 @@
         <v>86.2</v>
       </c>
       <c r="CR163" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="CS163" t="n" s="10">
         <v>86.7</v>
@@ -64813,7 +64813,7 @@
         <v>87.0</v>
       </c>
       <c r="CW163" t="n" s="10">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="CX163" t="n" s="10">
         <v>87.1</v>
@@ -64828,46 +64828,46 @@
         <v>86.3</v>
       </c>
       <c r="DB163" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="DC163" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="DD163" t="n" s="10">
+        <v>86.1</v>
+      </c>
+      <c r="DE163" t="n" s="10">
         <v>86.0</v>
       </c>
-      <c r="DE163" t="n" s="10">
-        <v>85.9</v>
-      </c>
       <c r="DF163" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DG163" t="n" s="10">
         <v>85.7</v>
       </c>
       <c r="DH163" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DI163" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="DJ163" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="DK163" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="DL163" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="DM163" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="DN163" t="n" s="10">
         <v>87.2</v>
       </c>
       <c r="DO163" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DP163" t="n" s="10">
         <v>88.1</v>
@@ -64876,16 +64876,16 @@
         <v>88.5</v>
       </c>
       <c r="DR163" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="DS163" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="DT163" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="DU163" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="DV163" t="n" s="10">
         <v>89.6</v>
@@ -64992,58 +64992,58 @@
         <v>36</v>
       </c>
       <c r="AA164" t="n" s="10">
-        <v>72.2</v>
+        <v>72.4</v>
       </c>
       <c r="AB164" t="n" s="10">
-        <v>72.7</v>
+        <v>72.9</v>
       </c>
       <c r="AC164" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="AD164" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="AE164" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="AF164" t="n" s="10">
-        <v>74.4</v>
+        <v>74.3</v>
       </c>
       <c r="AG164" t="n" s="10">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="AH164" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="AI164" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="AJ164" t="n" s="10">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="AK164" t="n" s="10">
+        <v>75.8</v>
+      </c>
+      <c r="AL164" t="n" s="10">
         <v>75.9</v>
       </c>
-      <c r="AL164" t="n" s="10">
+      <c r="AM164" t="n" s="10">
         <v>76.1</v>
       </c>
-      <c r="AM164" t="n" s="10">
-        <v>76.3</v>
-      </c>
       <c r="AN164" t="n" s="10">
-        <v>76.4</v>
+        <v>76.2</v>
       </c>
       <c r="AO164" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="AP164" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="AQ164" t="n" s="10">
+        <v>77.0</v>
+      </c>
+      <c r="AR164" t="n" s="10">
         <v>77.1</v>
-      </c>
-      <c r="AR164" t="n" s="10">
-        <v>77.2</v>
       </c>
       <c r="AS164" t="n" s="10">
         <v>77.4</v>
@@ -65058,10 +65058,10 @@
         <v>78.7</v>
       </c>
       <c r="AW164" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="AX164" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="AY164" t="n" s="10">
         <v>80.9</v>
@@ -65070,22 +65070,22 @@
         <v>81.8</v>
       </c>
       <c r="BA164" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="BB164" t="n" s="10">
         <v>83.6</v>
       </c>
       <c r="BC164" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="BD164" t="n" s="10">
         <v>85.7</v>
       </c>
       <c r="BE164" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="BF164" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="BG164" t="n" s="10">
         <v>88.2</v>
@@ -65121,25 +65121,25 @@
         <v>93.1</v>
       </c>
       <c r="BR164" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="BS164" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="BT164" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="BU164" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="BV164" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="BW164" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="BX164" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="BY164" t="n" s="10">
         <v>100.4</v>
@@ -65148,10 +65148,10 @@
         <v>101.5</v>
       </c>
       <c r="CA164" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CB164" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="CC164" t="n" s="10">
         <v>104.4</v>
@@ -65163,46 +65163,46 @@
         <v>105.2</v>
       </c>
       <c r="CF164" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="CG164" t="n" s="10">
         <v>105.1</v>
       </c>
       <c r="CH164" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="CI164" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="CJ164" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="CK164" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="CL164" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="CM164" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="CN164" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="CO164" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="CP164" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="CQ164" t="n" s="10">
         <v>87.4</v>
       </c>
       <c r="CR164" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CS164" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="CT164" t="n" s="10">
         <v>80.1</v>
@@ -65211,7 +65211,7 @@
         <v>78.2</v>
       </c>
       <c r="CV164" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="CW164" t="n" s="10">
         <v>75.8</v>
@@ -65223,31 +65223,31 @@
         <v>74.7</v>
       </c>
       <c r="CZ164" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="DA164" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="DB164" t="n" s="10">
         <v>75.4</v>
       </c>
       <c r="DC164" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="DD164" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="DE164" t="n" s="10">
         <v>77.5</v>
       </c>
       <c r="DF164" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="DG164" t="n" s="10">
         <v>78.6</v>
       </c>
       <c r="DH164" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="DI164" t="n" s="10">
         <v>79.2</v>
@@ -65256,25 +65256,25 @@
         <v>79.4</v>
       </c>
       <c r="DK164" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="DL164" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="DM164" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="DN164" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="DO164" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="DP164" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="DQ164" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="DR164" t="n" s="10">
         <v>82.1</v>
@@ -65292,7 +65292,7 @@
         <v>83.5</v>
       </c>
       <c r="DW164" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="DX164" t="n" s="10">
         <v>83.8</v>
@@ -65301,19 +65301,19 @@
         <v>84.0</v>
       </c>
       <c r="DZ164" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="EA164" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="EB164" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="EC164" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="ED164" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="165" ht="33.75" customHeight="true">
@@ -73439,16 +73439,16 @@
         <v>76.4</v>
       </c>
       <c r="AC186" t="n" s="10">
+        <v>76.5</v>
+      </c>
+      <c r="AD186" t="n" s="10">
         <v>76.4</v>
       </c>
-      <c r="AD186" t="n" s="10">
-        <v>76.3</v>
-      </c>
       <c r="AE186" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="AF186" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="AG186" t="n" s="10">
         <v>76.9</v>
@@ -73463,19 +73463,19 @@
         <v>78.8</v>
       </c>
       <c r="AK186" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="AL186" t="n" s="10">
         <v>79.9</v>
       </c>
       <c r="AM186" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="AN186" t="n" s="10">
         <v>81.1</v>
       </c>
       <c r="AO186" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="AP186" t="n" s="10">
         <v>81.9</v>
@@ -73484,7 +73484,7 @@
         <v>82.1</v>
       </c>
       <c r="AR186" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="AS186" t="n" s="10">
         <v>82.2</v>
@@ -73556,34 +73556,34 @@
         <v>93.6</v>
       </c>
       <c r="BP186" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="BQ186" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="BR186" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="BS186" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="BT186" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="BU186" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="BV186" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="BW186" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BX186" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="BY186" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="BZ186" t="n" s="10">
         <v>100.9</v>
@@ -73610,16 +73610,16 @@
         <v>105.5</v>
       </c>
       <c r="CH186" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="CI186" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="CJ186" t="n" s="10">
         <v>105.3</v>
       </c>
       <c r="CK186" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="CL186" t="n" s="10">
         <v>103.0</v>
@@ -73658,7 +73658,7 @@
         <v>73.2</v>
       </c>
       <c r="CX186" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="CY186" t="n" s="10">
         <v>72.5</v>
@@ -73676,16 +73676,16 @@
         <v>77.4</v>
       </c>
       <c r="DD186" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="DE186" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DF186" t="n" s="10">
         <v>82.9</v>
       </c>
       <c r="DG186" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DH186" t="n" s="10">
         <v>85.9</v>
@@ -73709,13 +73709,13 @@
         <v>92.9</v>
       </c>
       <c r="DO186" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="DP186" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="DQ186" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DR186" t="n" s="10">
         <v>96.5</v>
@@ -73834,7 +73834,7 @@
         <v>86.9</v>
       </c>
       <c r="AA187" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="AB187" t="n" s="10">
         <v>86.2</v>
@@ -73861,19 +73861,19 @@
         <v>87.6</v>
       </c>
       <c r="AJ187" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="AK187" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="AL187" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="AM187" t="n" s="10">
         <v>89.3</v>
       </c>
       <c r="AN187" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="AO187" t="n" s="10">
         <v>90.1</v>
@@ -73882,7 +73882,7 @@
         <v>90.3</v>
       </c>
       <c r="AQ187" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="AR187" t="n" s="10">
         <v>90.3</v>
@@ -73894,7 +73894,7 @@
         <v>90.2</v>
       </c>
       <c r="AU187" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="AV187" t="n" s="10">
         <v>89.9</v>
@@ -73933,7 +73933,7 @@
         <v>93.4</v>
       </c>
       <c r="BH187" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="BI187" t="n" s="10">
         <v>94.7</v>
@@ -73975,22 +73975,22 @@
         <v>101.9</v>
       </c>
       <c r="BV187" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="BW187" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="BX187" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="BY187" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="BZ187" t="n" s="10">
         <v>104.5</v>
       </c>
       <c r="CA187" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="CB187" t="n" s="10">
         <v>105.8</v>
@@ -74002,7 +74002,7 @@
         <v>107.0</v>
       </c>
       <c r="CE187" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="CF187" t="n" s="10">
         <v>108.3</v>
@@ -74038,10 +74038,10 @@
         <v>97.7</v>
       </c>
       <c r="CQ187" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="CR187" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="CS187" t="n" s="10">
         <v>88.1</v>
@@ -74077,7 +74077,7 @@
         <v>82.9</v>
       </c>
       <c r="DD187" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="DE187" t="n" s="10">
         <v>86.5</v>
@@ -74092,7 +74092,7 @@
         <v>90.8</v>
       </c>
       <c r="DI187" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DJ187" t="n" s="10">
         <v>93.1</v>
@@ -74119,7 +74119,7 @@
         <v>99.4</v>
       </c>
       <c r="DR187" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="DS187" t="n" s="10">
         <v>100.7</v>
@@ -74131,13 +74131,13 @@
         <v>101.4</v>
       </c>
       <c r="DV187" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="DW187" t="n" s="10">
         <v>101.7</v>
       </c>
       <c r="DX187" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="DY187" t="n" s="10">
         <v>101.5</v>
@@ -74149,7 +74149,7 @@
         <v>100.8</v>
       </c>
       <c r="EB187" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="EC187" t="n" s="10">
         <v>99.8</v>
@@ -74235,13 +74235,13 @@
         <v>69.0</v>
       </c>
       <c r="AA188" t="n" s="10">
-        <v>68.5</v>
+        <v>68.4</v>
       </c>
       <c r="AB188" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="AC188" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="AD188" t="n" s="10">
         <v>68.6</v>
@@ -74253,31 +74253,31 @@
         <v>68.6</v>
       </c>
       <c r="AG188" t="n" s="10">
-        <v>69.1</v>
+        <v>69.2</v>
       </c>
       <c r="AH188" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="AI188" t="n" s="10">
-        <v>70.6</v>
+        <v>70.7</v>
       </c>
       <c r="AJ188" t="n" s="10">
-        <v>71.3</v>
+        <v>71.5</v>
       </c>
       <c r="AK188" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="AL188" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="AM188" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="AN188" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AO188" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="AP188" t="n" s="10">
         <v>75.2</v>
@@ -74289,34 +74289,34 @@
         <v>75.7</v>
       </c>
       <c r="AS188" t="n" s="10">
+        <v>75.8</v>
+      </c>
+      <c r="AT188" t="n" s="10">
         <v>75.9</v>
       </c>
-      <c r="AT188" t="n" s="10">
+      <c r="AU188" t="n" s="10">
         <v>76.0</v>
       </c>
-      <c r="AU188" t="n" s="10">
+      <c r="AV188" t="n" s="10">
         <v>76.1</v>
       </c>
-      <c r="AV188" t="n" s="10">
-        <v>76.2</v>
-      </c>
       <c r="AW188" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="AX188" t="n" s="10">
         <v>76.7</v>
       </c>
       <c r="AY188" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="AZ188" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="BA188" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="BB188" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="BC188" t="n" s="10">
         <v>79.6</v>
@@ -74328,7 +74328,7 @@
         <v>81.6</v>
       </c>
       <c r="BF188" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="BG188" t="n" s="10">
         <v>83.7</v>
@@ -74337,13 +74337,13 @@
         <v>84.7</v>
       </c>
       <c r="BI188" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="BJ188" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="BK188" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="BL188" t="n" s="10">
         <v>88.0</v>
@@ -74352,7 +74352,7 @@
         <v>88.7</v>
       </c>
       <c r="BN188" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="BO188" t="n" s="10">
         <v>89.9</v>
@@ -74367,34 +74367,34 @@
         <v>91.8</v>
       </c>
       <c r="BS188" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="BT188" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="BU188" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="BV188" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="BW188" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="BX188" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="BY188" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="BZ188" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="CA188" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="CB188" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="CC188" t="n" s="10">
         <v>100.7</v>
@@ -74409,7 +74409,7 @@
         <v>102.4</v>
       </c>
       <c r="CG188" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="CH188" t="n" s="10">
         <v>102.9</v>
@@ -74421,7 +74421,7 @@
         <v>102.2</v>
       </c>
       <c r="CK188" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CL188" t="n" s="10">
         <v>99.5</v>
@@ -74445,13 +74445,13 @@
         <v>80.2</v>
       </c>
       <c r="CS188" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="CT188" t="n" s="10">
         <v>73.7</v>
       </c>
       <c r="CU188" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="CV188" t="n" s="10">
         <v>69.3</v>
@@ -74463,7 +74463,7 @@
         <v>67.5</v>
       </c>
       <c r="CY188" t="n" s="10">
-        <v>67.6</v>
+        <v>67.7</v>
       </c>
       <c r="CZ188" t="n" s="10">
         <v>68.4</v>
@@ -74478,13 +74478,13 @@
         <v>73.1</v>
       </c>
       <c r="DD188" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="DE188" t="n" s="10">
         <v>77.1</v>
       </c>
       <c r="DF188" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="DG188" t="n" s="10">
         <v>80.6</v>
@@ -74496,28 +74496,28 @@
         <v>83.5</v>
       </c>
       <c r="DJ188" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="DK188" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="DL188" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DM188" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="DN188" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DO188" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="DP188" t="n" s="10">
         <v>92.3</v>
       </c>
       <c r="DQ188" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DR188" t="n" s="10">
         <v>93.9</v>
@@ -74526,7 +74526,7 @@
         <v>94.4</v>
       </c>
       <c r="DT188" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="DU188" t="n" s="10">
         <v>94.7</v>
@@ -74556,7 +74556,7 @@
         <v>92.1</v>
       </c>
       <c r="ED188" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="189">
@@ -74678,7 +74678,7 @@
         <v>90.1</v>
       </c>
       <c r="AO189" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="AP189" t="n" s="10">
         <v>91.8</v>
@@ -74720,34 +74720,34 @@
         <v>95.4</v>
       </c>
       <c r="BC189" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="BD189" t="n" s="10">
         <v>97.1</v>
       </c>
       <c r="BE189" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="BF189" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="BG189" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="BH189" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="BI189" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="BJ189" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="BK189" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="BL189" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="BM189" t="n" s="10">
         <v>105.3</v>
@@ -74762,73 +74762,73 @@
         <v>106.9</v>
       </c>
       <c r="BQ189" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="BR189" t="n" s="10">
         <v>108.3</v>
       </c>
       <c r="BS189" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="BT189" t="n" s="10">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="BU189" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="BV189" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="BW189" t="n" s="10">
         <v>112.9</v>
       </c>
       <c r="BX189" t="n" s="10">
-        <v>114.0</v>
+        <v>114.1</v>
       </c>
       <c r="BY189" t="n" s="10">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="BZ189" t="n" s="10">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="CA189" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="CB189" t="n" s="10">
         <v>118.1</v>
       </c>
       <c r="CC189" t="n" s="10">
-        <v>118.7</v>
+        <v>118.8</v>
       </c>
       <c r="CD189" t="n" s="10">
-        <v>119.2</v>
+        <v>119.3</v>
       </c>
       <c r="CE189" t="n" s="10">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="CF189" t="n" s="10">
-        <v>119.9</v>
+        <v>120.0</v>
       </c>
       <c r="CG189" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="CH189" t="n" s="10">
         <v>120.0</v>
       </c>
       <c r="CI189" t="n" s="10">
-        <v>119.5</v>
+        <v>119.6</v>
       </c>
       <c r="CJ189" t="n" s="10">
-        <v>118.6</v>
+        <v>118.7</v>
       </c>
       <c r="CK189" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="CL189" t="n" s="10">
         <v>115.1</v>
       </c>
       <c r="CM189" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="CN189" t="n" s="10">
         <v>108.8</v>
@@ -74843,7 +74843,7 @@
         <v>96.3</v>
       </c>
       <c r="CR189" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="CS189" t="n" s="10">
         <v>88.2</v>
@@ -74855,7 +74855,7 @@
         <v>81.9</v>
       </c>
       <c r="CV189" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="CW189" t="n" s="10">
         <v>78.3</v>
@@ -74894,19 +74894,19 @@
         <v>90.4</v>
       </c>
       <c r="DI189" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DJ189" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DK189" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="DL189" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="DM189" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DN189" t="n" s="10">
         <v>97.1</v>
@@ -74945,10 +74945,10 @@
         <v>100.5</v>
       </c>
       <c r="DZ189" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="EA189" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="EB189" t="n" s="10">
         <v>97.5</v>
@@ -75037,7 +75037,7 @@
         <v>36</v>
       </c>
       <c r="AA190" t="n" s="10">
-        <v>58.1</v>
+        <v>58.0</v>
       </c>
       <c r="AB190" t="n" s="10">
         <v>58.6</v>
@@ -75052,22 +75052,22 @@
         <v>59.5</v>
       </c>
       <c r="AF190" t="n" s="10">
-        <v>59.8</v>
+        <v>59.9</v>
       </c>
       <c r="AG190" t="n" s="10">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="AH190" t="n" s="10">
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="AI190" t="n" s="10">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
       <c r="AJ190" t="n" s="10">
         <v>62.8</v>
       </c>
       <c r="AK190" t="n" s="10">
-        <v>63.3</v>
+        <v>63.4</v>
       </c>
       <c r="AL190" t="n" s="10">
         <v>63.8</v>
@@ -75094,19 +75094,19 @@
         <v>65.6</v>
       </c>
       <c r="AT190" t="n" s="10">
-        <v>65.7</v>
+        <v>65.6</v>
       </c>
       <c r="AU190" t="n" s="10">
         <v>65.7</v>
       </c>
       <c r="AV190" t="n" s="10">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="AW190" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="AX190" t="n" s="10">
-        <v>66.6</v>
+        <v>66.5</v>
       </c>
       <c r="AY190" t="n" s="10">
         <v>67.1</v>
@@ -75115,10 +75115,10 @@
         <v>67.7</v>
       </c>
       <c r="BA190" t="n" s="10">
-        <v>68.4</v>
+        <v>68.3</v>
       </c>
       <c r="BB190" t="n" s="10">
-        <v>69.2</v>
+        <v>69.1</v>
       </c>
       <c r="BC190" t="n" s="10">
         <v>70.1</v>
@@ -75127,37 +75127,37 @@
         <v>71.1</v>
       </c>
       <c r="BE190" t="n" s="10">
-        <v>72.1</v>
+        <v>72.0</v>
       </c>
       <c r="BF190" t="n" s="10">
         <v>73.0</v>
       </c>
       <c r="BG190" t="n" s="10">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="BH190" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="BI190" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="BJ190" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="BK190" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="BL190" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="BM190" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="BN190" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="BO190" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="BP190" t="n" s="10">
         <v>81.0</v>
@@ -75166,49 +75166,49 @@
         <v>81.7</v>
       </c>
       <c r="BR190" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="BS190" t="n" s="10">
-        <v>82.9</v>
+        <v>83.1</v>
       </c>
       <c r="BT190" t="n" s="10">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="BU190" t="n" s="10">
-        <v>84.1</v>
+        <v>84.5</v>
       </c>
       <c r="BV190" t="n" s="10">
-        <v>84.8</v>
+        <v>85.3</v>
       </c>
       <c r="BW190" t="n" s="10">
-        <v>85.5</v>
+        <v>86.0</v>
       </c>
       <c r="BX190" t="n" s="10">
-        <v>86.2</v>
+        <v>86.8</v>
       </c>
       <c r="BY190" t="n" s="10">
-        <v>86.9</v>
+        <v>87.5</v>
       </c>
       <c r="BZ190" t="n" s="10">
-        <v>87.6</v>
+        <v>88.2</v>
       </c>
       <c r="CA190" t="n" s="10">
-        <v>88.5</v>
+        <v>89.0</v>
       </c>
       <c r="CB190" t="n" s="10">
-        <v>89.4</v>
+        <v>89.8</v>
       </c>
       <c r="CC190" t="n" s="10">
-        <v>90.1</v>
+        <v>90.5</v>
       </c>
       <c r="CD190" t="n" s="10">
-        <v>90.8</v>
+        <v>91.1</v>
       </c>
       <c r="CE190" t="n" s="10">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="CF190" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="CG190" t="n" s="10">
         <v>92.6</v>
@@ -75256,7 +75256,7 @@
         <v>65.0</v>
       </c>
       <c r="CV190" t="n" s="10">
-        <v>63.2</v>
+        <v>63.3</v>
       </c>
       <c r="CW190" t="n" s="10">
         <v>62.2</v>
@@ -75271,10 +75271,10 @@
         <v>62.7</v>
       </c>
       <c r="DA190" t="n" s="10">
-        <v>63.9</v>
+        <v>64.0</v>
       </c>
       <c r="DB190" t="n" s="10">
-        <v>65.6</v>
+        <v>65.7</v>
       </c>
       <c r="DC190" t="n" s="10">
         <v>67.6</v>
@@ -75292,10 +75292,10 @@
         <v>75.6</v>
       </c>
       <c r="DH190" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="DI190" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="DJ190" t="n" s="10">
         <v>80.4</v>
@@ -75304,7 +75304,7 @@
         <v>81.9</v>
       </c>
       <c r="DL190" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DM190" t="n" s="10">
         <v>84.6</v>
@@ -75313,49 +75313,49 @@
         <v>85.9</v>
       </c>
       <c r="DO190" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DP190" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="DQ190" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="DR190" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="DS190" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="DT190" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="DU190" t="n" s="10">
         <v>90.3</v>
       </c>
       <c r="DV190" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="DW190" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="DX190" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="DY190" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="DZ190" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="EA190" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="EB190" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="EC190" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="ED190" t="n" s="10">
         <v>90.0</v>
@@ -83478,22 +83478,22 @@
         <v>68.4</v>
       </c>
       <c r="AA212" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="AB212" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="AC212" t="n" s="10">
         <v>69.3</v>
       </c>
       <c r="AD212" t="n" s="10">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="AE212" t="n" s="10">
         <v>69.8</v>
       </c>
       <c r="AF212" t="n" s="10">
-        <v>70.0</v>
+        <v>70.1</v>
       </c>
       <c r="AG212" t="n" s="10">
         <v>70.5</v>
@@ -83520,10 +83520,10 @@
         <v>74.1</v>
       </c>
       <c r="AO212" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="AP212" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AQ212" t="n" s="10">
         <v>75.6</v>
@@ -83607,13 +83607,13 @@
         <v>90.4</v>
       </c>
       <c r="BR212" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="BS212" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="BT212" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="BU212" t="n" s="10">
         <v>93.7</v>
@@ -83625,7 +83625,7 @@
         <v>95.5</v>
       </c>
       <c r="BX212" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="BY212" t="n" s="10">
         <v>97.3</v>
@@ -83637,37 +83637,37 @@
         <v>99.3</v>
       </c>
       <c r="CB212" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="CC212" t="n" s="10">
         <v>101.2</v>
       </c>
       <c r="CD212" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="CE212" t="n" s="10">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="CF212" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="CG212" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="CH212" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="CI212" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="CJ212" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="CK212" t="n" s="10">
         <v>103.8</v>
       </c>
       <c r="CL212" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="CM212" t="n" s="10">
         <v>100.0</v>
@@ -83682,7 +83682,7 @@
         <v>89.8</v>
       </c>
       <c r="CQ212" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CR212" t="n" s="10">
         <v>81.6</v>
@@ -83691,10 +83691,10 @@
         <v>77.7</v>
       </c>
       <c r="CT212" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="CU212" t="n" s="10">
-        <v>71.0</v>
+        <v>70.9</v>
       </c>
       <c r="CV212" t="n" s="10">
         <v>68.3</v>
@@ -83712,13 +83712,13 @@
         <v>64.1</v>
       </c>
       <c r="DA212" t="n" s="10">
-        <v>64.6</v>
+        <v>64.5</v>
       </c>
       <c r="DB212" t="n" s="10">
-        <v>65.6</v>
+        <v>65.5</v>
       </c>
       <c r="DC212" t="n" s="10">
-        <v>67.0</v>
+        <v>66.9</v>
       </c>
       <c r="DD212" t="n" s="10">
         <v>68.6</v>
@@ -83727,7 +83727,7 @@
         <v>70.4</v>
       </c>
       <c r="DF212" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="DG212" t="n" s="10">
         <v>74.1</v>
@@ -83760,7 +83760,7 @@
         <v>90.3</v>
       </c>
       <c r="DQ212" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="DR212" t="n" s="10">
         <v>93.3</v>
@@ -83784,7 +83784,7 @@
         <v>96.1</v>
       </c>
       <c r="DY212" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="DZ212" t="n" s="10">
         <v>95.0</v>
@@ -83909,37 +83909,37 @@
         <v>84.6</v>
       </c>
       <c r="AK213" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="AL213" t="n" s="10">
         <v>85.1</v>
       </c>
       <c r="AM213" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="AN213" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="AO213" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="AP213" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="AQ213" t="n" s="10">
         <v>86.1</v>
       </c>
       <c r="AR213" t="n" s="10">
+        <v>86.1</v>
+      </c>
+      <c r="AS213" t="n" s="10">
         <v>86.2</v>
       </c>
-      <c r="AS213" t="n" s="10">
+      <c r="AT213" t="n" s="10">
         <v>86.3</v>
       </c>
-      <c r="AT213" t="n" s="10">
-        <v>86.4</v>
-      </c>
       <c r="AU213" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="AV213" t="n" s="10">
         <v>86.8</v>
@@ -83963,10 +83963,10 @@
         <v>89.4</v>
       </c>
       <c r="BC213" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="BD213" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="BE213" t="n" s="10">
         <v>90.8</v>
@@ -83975,13 +83975,13 @@
         <v>91.1</v>
       </c>
       <c r="BG213" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="BH213" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="BI213" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="BJ213" t="n" s="10">
         <v>92.7</v>
@@ -83990,7 +83990,7 @@
         <v>93.2</v>
       </c>
       <c r="BL213" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="BM213" t="n" s="10">
         <v>94.4</v>
@@ -84005,40 +84005,40 @@
         <v>96.6</v>
       </c>
       <c r="BQ213" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="BR213" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BS213" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BT213" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="BU213" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="BV213" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="BW213" t="n" s="10">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="BX213" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="BY213" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="BZ213" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="CA213" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="CB213" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="CC213" t="n" s="10">
         <v>107.7</v>
@@ -84080,13 +84080,13 @@
         <v>101.6</v>
       </c>
       <c r="CP213" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="CQ213" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="CR213" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="CS213" t="n" s="10">
         <v>87.7</v>
@@ -84095,7 +84095,7 @@
         <v>84.3</v>
       </c>
       <c r="CU213" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="CV213" t="n" s="10">
         <v>78.5</v>
@@ -84164,25 +84164,25 @@
         <v>93.9</v>
       </c>
       <c r="DR213" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="DS213" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="DT213" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DU213" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DV213" t="n" s="10">
         <v>97.6</v>
       </c>
       <c r="DW213" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DX213" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="DY213" t="n" s="10">
         <v>98.2</v>
@@ -84280,37 +84280,37 @@
         <v>57.9</v>
       </c>
       <c r="AA214" t="n" s="10">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="AB214" t="n" s="10">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="AC214" t="n" s="10">
         <v>59.0</v>
       </c>
       <c r="AD214" t="n" s="10">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="AE214" t="n" s="10">
-        <v>59.3</v>
+        <v>59.4</v>
       </c>
       <c r="AF214" t="n" s="10">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AG214" t="n" s="10">
-        <v>60.1</v>
+        <v>60.2</v>
       </c>
       <c r="AH214" t="n" s="10">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="AI214" t="n" s="10">
-        <v>61.3</v>
+        <v>61.4</v>
       </c>
       <c r="AJ214" t="n" s="10">
-        <v>62.0</v>
+        <v>62.1</v>
       </c>
       <c r="AK214" t="n" s="10">
-        <v>62.7</v>
+        <v>62.8</v>
       </c>
       <c r="AL214" t="n" s="10">
         <v>63.5</v>
@@ -84331,7 +84331,7 @@
         <v>67.6</v>
       </c>
       <c r="AR214" t="n" s="10">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="AS214" t="n" s="10">
         <v>68.8</v>
@@ -84346,7 +84346,7 @@
         <v>70.3</v>
       </c>
       <c r="AW214" t="n" s="10">
-        <v>70.7</v>
+        <v>70.6</v>
       </c>
       <c r="AX214" t="n" s="10">
         <v>71.1</v>
@@ -84364,13 +84364,13 @@
         <v>73.3</v>
       </c>
       <c r="BC214" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BD214" t="n" s="10">
         <v>75.0</v>
       </c>
       <c r="BE214" t="n" s="10">
-        <v>75.8</v>
+        <v>75.9</v>
       </c>
       <c r="BF214" t="n" s="10">
         <v>76.8</v>
@@ -84379,7 +84379,7 @@
         <v>77.7</v>
       </c>
       <c r="BH214" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="BI214" t="n" s="10">
         <v>79.7</v>
@@ -84394,10 +84394,10 @@
         <v>81.8</v>
       </c>
       <c r="BM214" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="BN214" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="BO214" t="n" s="10">
         <v>83.5</v>
@@ -84424,7 +84424,7 @@
         <v>88.6</v>
       </c>
       <c r="BW214" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="BX214" t="n" s="10">
         <v>90.8</v>
@@ -84433,40 +84433,40 @@
         <v>92.0</v>
       </c>
       <c r="BZ214" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="CA214" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="CB214" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="CC214" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="CD214" t="n" s="10">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="CE214" t="n" s="10">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="CF214" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="CG214" t="n" s="10">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="CH214" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="CI214" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CJ214" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="CK214" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="CL214" t="n" s="10">
         <v>97.5</v>
@@ -84484,28 +84484,28 @@
         <v>83.4</v>
       </c>
       <c r="CQ214" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="CR214" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="CS214" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="CT214" t="n" s="10">
-        <v>66.5</v>
+        <v>66.6</v>
       </c>
       <c r="CU214" t="n" s="10">
         <v>63.3</v>
       </c>
       <c r="CV214" t="n" s="10">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="CW214" t="n" s="10">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="CX214" t="n" s="10">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="CY214" t="n" s="10">
         <v>56.3</v>
@@ -84544,7 +84544,7 @@
         <v>75.0</v>
       </c>
       <c r="DK214" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="DL214" t="n" s="10">
         <v>79.5</v>
@@ -84562,10 +84562,10 @@
         <v>88.1</v>
       </c>
       <c r="DQ214" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="DR214" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="DS214" t="n" s="10">
         <v>92.4</v>
@@ -84577,16 +84577,16 @@
         <v>93.2</v>
       </c>
       <c r="DV214" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="DW214" t="n" s="10">
         <v>93.1</v>
       </c>
-      <c r="DW214" t="n" s="10">
-        <v>93.0</v>
-      </c>
       <c r="DX214" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DY214" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="DZ214" t="n" s="10">
         <v>91.1</v>
@@ -84598,7 +84598,7 @@
         <v>89.5</v>
       </c>
       <c r="EC214" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="ED214" t="n" s="10">
         <v>88.3</v>
@@ -84684,10 +84684,10 @@
         <v>74.8</v>
       </c>
       <c r="AB215" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AC215" t="n" s="10">
-        <v>74.0</v>
+        <v>74.1</v>
       </c>
       <c r="AD215" t="n" s="10">
         <v>73.7</v>
@@ -84696,16 +84696,16 @@
         <v>73.3</v>
       </c>
       <c r="AF215" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="AG215" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="AH215" t="n" s="10">
         <v>72.8</v>
       </c>
       <c r="AI215" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="AJ215" t="n" s="10">
         <v>73.4</v>
@@ -84723,25 +84723,25 @@
         <v>75.9</v>
       </c>
       <c r="AO215" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="AP215" t="n" s="10">
         <v>77.6</v>
       </c>
       <c r="AQ215" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="AR215" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="AS215" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="AT215" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="AU215" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="AV215" t="n" s="10">
         <v>81.9</v>
@@ -84768,7 +84768,7 @@
         <v>87.8</v>
       </c>
       <c r="BD215" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="BE215" t="n" s="10">
         <v>90.7</v>
@@ -84777,22 +84777,22 @@
         <v>92.1</v>
       </c>
       <c r="BG215" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="BH215" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="BI215" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="BJ215" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="BK215" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="BL215" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="BM215" t="n" s="10">
         <v>96.7</v>
@@ -84816,7 +84816,7 @@
         <v>98.4</v>
       </c>
       <c r="BT215" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BU215" t="n" s="10">
         <v>99.4</v>
@@ -84825,7 +84825,7 @@
         <v>100.4</v>
       </c>
       <c r="BW215" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="BX215" t="n" s="10">
         <v>103.7</v>
@@ -84849,7 +84849,7 @@
         <v>117.3</v>
       </c>
       <c r="CE215" t="n" s="10">
-        <v>119.6</v>
+        <v>119.5</v>
       </c>
       <c r="CF215" t="n" s="10">
         <v>121.5</v>
@@ -84861,10 +84861,10 @@
         <v>123.4</v>
       </c>
       <c r="CI215" t="n" s="10">
-        <v>122.8</v>
+        <v>122.7</v>
       </c>
       <c r="CJ215" t="n" s="10">
-        <v>121.3</v>
+        <v>121.2</v>
       </c>
       <c r="CK215" t="n" s="10">
         <v>118.6</v>
@@ -84885,34 +84885,34 @@
         <v>94.3</v>
       </c>
       <c r="CQ215" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="CR215" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="CS215" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="CT215" t="n" s="10">
         <v>74.6</v>
       </c>
       <c r="CU215" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="CV215" t="n" s="10">
-        <v>69.1</v>
+        <v>69.2</v>
       </c>
       <c r="CW215" t="n" s="10">
         <v>67.1</v>
       </c>
       <c r="CX215" t="n" s="10">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="CY215" t="n" s="10">
         <v>64.8</v>
       </c>
       <c r="CZ215" t="n" s="10">
-        <v>64.7</v>
+        <v>64.8</v>
       </c>
       <c r="DA215" t="n" s="10">
         <v>65.3</v>
@@ -84942,13 +84942,13 @@
         <v>81.5</v>
       </c>
       <c r="DJ215" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="DK215" t="n" s="10">
         <v>85.4</v>
       </c>
       <c r="DL215" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="DM215" t="n" s="10">
         <v>88.8</v>
@@ -84957,7 +84957,7 @@
         <v>90.2</v>
       </c>
       <c r="DO215" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DP215" t="n" s="10">
         <v>92.6</v>
@@ -84987,22 +84987,22 @@
         <v>97.2</v>
       </c>
       <c r="DY215" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DZ215" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="EA215" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="EB215" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="EC215" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="ED215" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="216">
@@ -85097,10 +85097,10 @@
         <v>51.2</v>
       </c>
       <c r="AF216" t="n" s="10">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="AG216" t="n" s="10">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="AH216" t="n" s="10">
         <v>53.6</v>
@@ -85127,82 +85127,82 @@
         <v>59.8</v>
       </c>
       <c r="AP216" t="n" s="10">
-        <v>60.7</v>
+        <v>60.6</v>
       </c>
       <c r="AQ216" t="n" s="10">
-        <v>61.4</v>
+        <v>61.3</v>
       </c>
       <c r="AR216" t="n" s="10">
         <v>61.9</v>
       </c>
       <c r="AS216" t="n" s="10">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
       <c r="AT216" t="n" s="10">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="AU216" t="n" s="10">
         <v>63.1</v>
       </c>
       <c r="AV216" t="n" s="10">
-        <v>63.5</v>
+        <v>63.4</v>
       </c>
       <c r="AW216" t="n" s="10">
-        <v>64.0</v>
+        <v>63.9</v>
       </c>
       <c r="AX216" t="n" s="10">
-        <v>64.4</v>
+        <v>64.3</v>
       </c>
       <c r="AY216" t="n" s="10">
-        <v>64.7</v>
+        <v>64.6</v>
       </c>
       <c r="AZ216" t="n" s="10">
         <v>64.9</v>
       </c>
       <c r="BA216" t="n" s="10">
-        <v>65.2</v>
+        <v>65.1</v>
       </c>
       <c r="BB216" t="n" s="10">
-        <v>65.6</v>
+        <v>65.5</v>
       </c>
       <c r="BC216" t="n" s="10">
-        <v>66.2</v>
+        <v>66.0</v>
       </c>
       <c r="BD216" t="n" s="10">
-        <v>66.7</v>
+        <v>66.6</v>
       </c>
       <c r="BE216" t="n" s="10">
-        <v>67.2</v>
+        <v>67.1</v>
       </c>
       <c r="BF216" t="n" s="10">
-        <v>67.9</v>
+        <v>67.7</v>
       </c>
       <c r="BG216" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="BH216" t="n" s="10">
-        <v>69.5</v>
+        <v>69.3</v>
       </c>
       <c r="BI216" t="n" s="10">
-        <v>70.4</v>
+        <v>70.2</v>
       </c>
       <c r="BJ216" t="n" s="10">
-        <v>71.4</v>
+        <v>71.2</v>
       </c>
       <c r="BK216" t="n" s="10">
-        <v>72.4</v>
+        <v>72.2</v>
       </c>
       <c r="BL216" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="BM216" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BN216" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="BO216" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="BP216" t="n" s="10">
         <v>76.5</v>
@@ -85211,52 +85211,52 @@
         <v>77.5</v>
       </c>
       <c r="BR216" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="BS216" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="BT216" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="BU216" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="BV216" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="BW216" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="BX216" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="BY216" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="BZ216" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="CA216" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="CB216" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CC216" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="CD216" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="CE216" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="CF216" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="CG216" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="CH216" t="n" s="10">
         <v>89.9</v>
@@ -85274,28 +85274,28 @@
         <v>87.6</v>
       </c>
       <c r="CM216" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="CN216" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="CO216" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="CP216" t="n" s="10">
-        <v>77.4</v>
+        <v>77.3</v>
       </c>
       <c r="CQ216" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="CR216" t="n" s="10">
         <v>69.6</v>
       </c>
       <c r="CS216" t="n" s="10">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="CT216" t="n" s="10">
-        <v>62.1</v>
+        <v>62.0</v>
       </c>
       <c r="CU216" t="n" s="10">
         <v>58.6</v>
@@ -85319,10 +85319,10 @@
         <v>51.7</v>
       </c>
       <c r="DB216" t="n" s="10">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="DC216" t="n" s="10">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="DD216" t="n" s="10">
         <v>56.2</v>
@@ -85331,13 +85331,13 @@
         <v>58.3</v>
       </c>
       <c r="DF216" t="n" s="10">
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="DG216" t="n" s="10">
         <v>62.6</v>
       </c>
       <c r="DH216" t="n" s="10">
-        <v>64.9</v>
+        <v>65.0</v>
       </c>
       <c r="DI216" t="n" s="10">
         <v>67.1</v>
@@ -85352,22 +85352,22 @@
         <v>73.7</v>
       </c>
       <c r="DM216" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="DN216" t="n" s="10">
         <v>78.4</v>
       </c>
       <c r="DO216" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DP216" t="n" s="10">
         <v>83.1</v>
       </c>
       <c r="DQ216" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DR216" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="DS216" t="n" s="10">
         <v>88.2</v>
@@ -85376,34 +85376,34 @@
         <v>88.9</v>
       </c>
       <c r="DU216" t="n" s="10">
+        <v>89.3</v>
+      </c>
+      <c r="DV216" t="n" s="10">
         <v>89.4</v>
       </c>
-      <c r="DV216" t="n" s="10">
-        <v>89.5</v>
-      </c>
       <c r="DW216" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DX216" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DY216" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="DZ216" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="EA216" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="EB216" t="n" s="10">
-        <v>87.4</v>
+        <v>87.2</v>
       </c>
       <c r="EC216" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="ED216" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="217">
@@ -85457,7 +85457,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:59:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:54:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>